--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE591_Spring2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF4FE4-1D59-9E45-A840-872F33408BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7120F2-0DFE-3242-8848-26D05FBA27F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22260" yWindow="3400" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
-  <si>
-    <t>NE 591 Grading</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Weight</t>
   </si>
@@ -138,33 +144,6 @@
     <t>&lt;60</t>
   </si>
   <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Angelica</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Cole</t>
-  </si>
-  <si>
-    <t>Quentin</t>
-  </si>
-  <si>
-    <t>Fedi</t>
-  </si>
-  <si>
-    <t>Fu-Yun</t>
-  </si>
-  <si>
-    <t>Jahid</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -180,10 +159,37 @@
     <t>Curve</t>
   </si>
   <si>
-    <t>Optional Project</t>
-  </si>
-  <si>
     <t>opt sum</t>
+  </si>
+  <si>
+    <t>NE 533 Grading</t>
+  </si>
+  <si>
+    <t>Hamdy</t>
+  </si>
+  <si>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>Mahmoud</t>
+  </si>
+  <si>
+    <t>Shehab</t>
+  </si>
+  <si>
+    <t>Rubyea</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Bobby</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Osazuwa</t>
   </si>
 </sst>
 </file>
@@ -553,7 +559,7 @@
   <dimension ref="B2:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,106 +572,79 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" t="s">
-        <v>48</v>
-      </c>
       <c r="Q5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
         <v>34</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>66</v>
-      </c>
-      <c r="D6">
-        <v>97</v>
-      </c>
-      <c r="E6">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>96</v>
-      </c>
-      <c r="G6">
-        <v>99</v>
-      </c>
-      <c r="H6">
-        <v>79</v>
-      </c>
-      <c r="I6">
-        <v>68</v>
-      </c>
-      <c r="J6">
-        <v>83</v>
-      </c>
-      <c r="K6">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>100</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="3" t="e">
         <f>AVERAGE(C6:K6)</f>
-        <v>82.666666666666671</v>
-      </c>
-      <c r="N6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="3" t="e">
         <f>STDEV(C6:K6)</f>
-        <v>13.228756555322953</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O6" s="3"/>
       <c r="Q6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" t="s">
         <v>9</v>
-      </c>
-      <c r="R6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0.2</v>
@@ -698,15 +677,15 @@
         <v>0.2</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
         <v>11</v>
-      </c>
-      <c r="R7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -736,48 +715,48 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" t="s">
         <v>13</v>
-      </c>
-      <c r="R8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>(C6+C8)*C7</f>
-        <v>14.200000000000001</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f>(D6+D8)*D7</f>
-        <v>20.400000000000002</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="0">(E6+E8)*E7</f>
-        <v>18.600000000000001</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>20.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>20.8</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>14.600000000000001</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f>(K6+K8)*K7</f>
-        <v>14.600000000000001</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f>L6*L7</f>
@@ -785,65 +764,41 @@
       </c>
       <c r="O9" s="5">
         <f>L9/O$31</f>
-        <v>0.18018018018018017</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" t="s">
         <v>15</v>
-      </c>
-      <c r="R9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>91</v>
-      </c>
-      <c r="E10">
-        <v>92</v>
-      </c>
-      <c r="F10">
-        <v>90</v>
-      </c>
-      <c r="G10">
-        <v>87</v>
-      </c>
-      <c r="H10">
-        <v>80</v>
-      </c>
-      <c r="I10">
-        <v>95</v>
-      </c>
-      <c r="J10">
-        <v>91</v>
-      </c>
-      <c r="K10">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="e">
         <f>AVERAGE(C10:K10)</f>
-        <v>81.75</v>
-      </c>
-      <c r="N10" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="3" t="e">
         <f>STDEV(C10:K10)</f>
-        <v>22.166577156997938</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O10" s="5"/>
       <c r="Q10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" t="s">
         <v>17</v>
-      </c>
-      <c r="R10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0.2</v>
@@ -877,15 +832,15 @@
       </c>
       <c r="O11" s="5"/>
       <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" t="s">
         <v>19</v>
-      </c>
-      <c r="R11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -916,44 +871,48 @@
       </c>
       <c r="O12" s="5"/>
       <c r="Q12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" t="s">
         <v>21</v>
-      </c>
-      <c r="R12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>(C10+C12)*C11</f>
-        <v>19.200000000000003</v>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>(D10+D12)*D11</f>
+        <v>1</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:L13" si="1">(E10+E12)*E11</f>
-        <v>19.400000000000002</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>18.400000000000002</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>19.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>6.6000000000000005</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -961,33 +920,33 @@
       </c>
       <c r="O13" s="5">
         <f>L13/O$31</f>
-        <v>0.18018018018018017</v>
+        <v>0.2</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
         <v>23</v>
-      </c>
-      <c r="R13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <v>100</v>
       </c>
       <c r="O14" s="5"/>
       <c r="Q14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" t="s">
         <v>25</v>
-      </c>
-      <c r="R14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0.2</v>
@@ -1021,10 +980,10 @@
       </c>
       <c r="O15" s="5"/>
       <c r="Q15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" t="s">
         <v>27</v>
-      </c>
-      <c r="R15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -1070,60 +1029,42 @@
       </c>
       <c r="O16" s="5">
         <f>L16/O$31</f>
-        <v>0.18018018018018017</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" t="s">
         <v>29</v>
-      </c>
-      <c r="R16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4">
-        <v>94</v>
-      </c>
-      <c r="D17" s="4">
-        <v>97</v>
-      </c>
-      <c r="E17" s="4">
-        <v>95</v>
-      </c>
-      <c r="F17" s="4">
-        <v>98</v>
-      </c>
-      <c r="G17" s="4">
-        <v>91</v>
-      </c>
-      <c r="H17" s="4">
-        <v>92</v>
-      </c>
-      <c r="I17" s="4">
-        <v>96</v>
-      </c>
-      <c r="J17" s="4">
-        <v>90</v>
-      </c>
-      <c r="K17" s="4">
-        <v>88</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="L17">
         <v>100</v>
       </c>
       <c r="O17" s="5"/>
       <c r="Q17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" t="s">
         <v>31</v>
-      </c>
-      <c r="R17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0.15</v>
@@ -1157,48 +1098,48 @@
       </c>
       <c r="O18" s="5"/>
       <c r="Q18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C19">
         <f>C17*C18</f>
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19" si="5">D17*D18</f>
-        <v>14.549999999999999</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:K19" si="6">E17*E18</f>
-        <v>14.25</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f t="shared" si="6"/>
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="6"/>
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
-        <v>13.799999999999999</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <f t="shared" si="6"/>
-        <v>14.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <f t="shared" si="6"/>
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="7">L17*L18</f>
@@ -1206,7 +1147,7 @@
       </c>
       <c r="O19" s="5">
         <f>L19/O$31</f>
-        <v>0.13513513513513514</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
@@ -1220,7 +1161,7 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -1229,7 +1170,7 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0.25</v>
@@ -1306,139 +1247,119 @@
       </c>
       <c r="O25" s="5">
         <f>L25/O$31</f>
-        <v>0.22522522522522523</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27">
-        <v>100</v>
-      </c>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.11</v>
-      </c>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L29">
-        <f t="shared" ref="L29" si="11">L27*L28</f>
-        <v>11</v>
-      </c>
-      <c r="O29" s="5">
-        <f>L29/O$31</f>
-        <v>9.90990990990991E-2</v>
-      </c>
+      <c r="O29" s="5"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <f>SUM(C25,C22,C19,C16,C13,C9,C29)</f>
-        <v>47.500000000000007</v>
+        <f>SUM(C9)</f>
+        <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:K31" si="12">SUM(D25,D22,D19,D16,D13,D9,D29)</f>
-        <v>34.950000000000003</v>
+        <f t="shared" ref="D31:K31" si="11">SUM(D9)</f>
+        <v>1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="12"/>
-        <v>52.250000000000007</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="12"/>
-        <v>53.900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="12"/>
-        <v>52.850000000000009</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="12"/>
-        <v>47.599999999999994</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="I31">
-        <f t="shared" si="12"/>
-        <v>49</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="J31">
-        <f t="shared" si="12"/>
-        <v>50.300000000000004</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="K31">
-        <f>SUM(K25,K22,K19,K16,K13,K9,K29)</f>
-        <v>34.400000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="L31">
-        <f>SUM(L9,L19,L13)</f>
-        <v>55</v>
+        <f>SUM(L9)</f>
+        <v>20</v>
       </c>
       <c r="O31">
-        <f>L9+L13+L16+L19+L25+L29</f>
-        <v>111</v>
+        <f>L9+L13+L16+L19+L25</f>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="L32">
-        <f>SUM(L9,L19,L13)</f>
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1">
         <f>C31/$L$31</f>
-        <v>0.86363636363636376</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="D34" s="1">
+        <f>D31/$L$31</f>
+        <v>0.05</v>
+      </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:K34" si="13">E31/$L$31</f>
-        <v>0.95000000000000018</v>
+        <f t="shared" ref="E34:K34" si="12">E31/$L$31</f>
+        <v>0.05</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.98000000000000009</v>
+        <f t="shared" si="12"/>
+        <v>0.05</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.96090909090909105</v>
+        <f t="shared" si="12"/>
+        <v>0.05</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.86545454545454537</v>
+        <f t="shared" si="12"/>
+        <v>0.05</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.89090909090909087</v>
+        <f t="shared" si="12"/>
+        <v>0.05</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.91454545454545466</v>
+        <f t="shared" si="12"/>
+        <v>0.05</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.6254545454545456</v>
+        <f t="shared" si="12"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7120F2-0DFE-3242-8848-26D05FBA27F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130F6CE-3B91-BD48-8C73-E6065CC1D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22260" yWindow="3400" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B2:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130F6CE-3B91-BD48-8C73-E6065CC1D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E94FA-F4C2-E54C-9EA1-58835F3C337F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22260" yWindow="3400" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="13320" yWindow="3400" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,13 +559,13 @@
   <dimension ref="B2:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
     <col min="18" max="18" width="16.83203125" customWidth="1"/>
   </cols>
@@ -623,16 +623,37 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
+      <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>95</v>
+      </c>
+      <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>83</v>
+      </c>
+      <c r="K6">
+        <v>69</v>
+      </c>
       <c r="L6">
         <v>100</v>
       </c>
-      <c r="M6" s="3" t="e">
+      <c r="M6" s="3">
         <f>AVERAGE(C6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="3" t="e">
+        <v>79</v>
+      </c>
+      <c r="N6" s="3">
         <f>STDEV(C6:K6)</f>
-        <v>#DIV/0!</v>
+        <v>18.230011885167087</v>
       </c>
       <c r="O6" s="3"/>
       <c r="Q6" s="2" t="s">
@@ -724,23 +745,23 @@
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>(C6+C8)*C7</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <f>(D6+D8)*D7</f>
-        <v>1</v>
+        <v>16.8</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="0">(E6+E8)*E7</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20.6</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -752,11 +773,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="K9">
         <f>(K6+K8)*K7</f>
-        <v>1</v>
+        <v>14.8</v>
       </c>
       <c r="L9">
         <f>L6*L7</f>
@@ -1268,23 +1289,23 @@
       </c>
       <c r="C31">
         <f>SUM(C9)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31:K31" si="11">SUM(D9)</f>
-        <v>1</v>
+        <v>16.8</v>
       </c>
       <c r="E31">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>20.6</v>
       </c>
       <c r="G31">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H31">
         <f t="shared" si="11"/>
@@ -1296,11 +1317,11 @@
       </c>
       <c r="J31">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="K31">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>14.8</v>
       </c>
       <c r="L31">
         <f>SUM(L9)</f>
@@ -1322,23 +1343,23 @@
       </c>
       <c r="C34" s="1">
         <f>C31/$L$31</f>
-        <v>0.05</v>
+        <v>0.9</v>
       </c>
       <c r="D34" s="1">
         <f>D31/$L$31</f>
-        <v>0.05</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" ref="E34:K34" si="12">E31/$L$31</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="12"/>
-        <v>0.05</v>
+        <v>1.03</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="12"/>
-        <v>0.05</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="12"/>
@@ -1350,11 +1371,11 @@
       </c>
       <c r="J34" s="1">
         <f t="shared" si="12"/>
-        <v>0.05</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="12"/>
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E94FA-F4C2-E54C-9EA1-58835F3C337F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47DBEE1-3C62-3B4A-88CD-188A3C9BB33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="3400" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="8040" yWindow="5420" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Weight</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Osazuwa</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Project 2</t>
   </si>
 </sst>
 </file>
@@ -556,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:R36"/>
+  <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,15 +576,15 @@
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+    <col min="20" max="20" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>43</v>
       </c>
@@ -612,14 +621,20 @@
       <c r="N5" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -638,6 +653,12 @@
       <c r="G6">
         <v>44</v>
       </c>
+      <c r="H6">
+        <v>83</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
       <c r="J6">
         <v>83</v>
       </c>
@@ -649,21 +670,29 @@
       </c>
       <c r="M6" s="3">
         <f>AVERAGE(C6:K6)</f>
-        <v>79</v>
+        <v>76.222222222222229</v>
       </c>
       <c r="N6" s="3">
         <f>STDEV(C6:K6)</f>
-        <v>18.230011885167087</v>
+        <v>18.646566559140165</v>
       </c>
       <c r="O6" s="3"/>
-      <c r="Q6" s="2" t="s">
+      <c r="P6" s="3">
+        <f>AVERAGE(C6:G6)</f>
+        <v>80.2</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>AVERAGE(H6:K6)</f>
+        <v>71.25</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -697,87 +726,60 @@
       <c r="L7">
         <v>0.2</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>(C6+C8)*C7</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <f>(D6+D8)*D7</f>
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="0">(E6+E8)*E7</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>20.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>9.8000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K9">
         <f>(K6+K8)*K7</f>
-        <v>14.8</v>
+        <v>13.8</v>
       </c>
       <c r="L9">
         <f>L6*L7</f>
@@ -787,14 +789,16 @@
         <f>L9/O$31</f>
         <v>0.2</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="S9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -810,14 +814,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O10" s="5"/>
-      <c r="Q10" s="2" t="s">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="S10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -852,14 +858,16 @@
         <v>0.2</v>
       </c>
       <c r="O11" s="5"/>
-      <c r="Q11" s="2" t="s">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="S11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -891,14 +899,16 @@
         <v>5</v>
       </c>
       <c r="O12" s="5"/>
-      <c r="Q12" s="2" t="s">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="S12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>(C10+C12)*C11</f>
         <v>1</v>
@@ -943,14 +953,16 @@
         <f>L13/O$31</f>
         <v>0.2</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="S13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -958,14 +970,16 @@
         <v>100</v>
       </c>
       <c r="O14" s="5"/>
-      <c r="Q14" s="2" t="s">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1000,14 +1014,16 @@
         <v>0.2</v>
       </c>
       <c r="O15" s="5"/>
-      <c r="Q15" s="2" t="s">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="S15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C16">
         <f>C14*C15</f>
         <v>0</v>
@@ -1052,38 +1068,58 @@
         <f>L16/O$31</f>
         <v>0.2</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="S16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="C17" s="4">
+        <v>98</v>
+      </c>
+      <c r="D17" s="4">
+        <v>92</v>
+      </c>
+      <c r="E17" s="4">
+        <v>98</v>
+      </c>
+      <c r="F17" s="4">
+        <v>99</v>
+      </c>
+      <c r="G17" s="4">
+        <v>90</v>
+      </c>
+      <c r="H17" s="4">
+        <v>97</v>
+      </c>
+      <c r="I17" s="4">
+        <v>94</v>
+      </c>
+      <c r="J17" s="4">
+        <v>95</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17">
         <v>100</v>
       </c>
       <c r="O17" s="5"/>
-      <c r="Q17" s="2" t="s">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="S17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -1118,45 +1154,47 @@
         <v>0.15</v>
       </c>
       <c r="O18" s="5"/>
-      <c r="Q18" s="2" t="s">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="S18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C19">
         <f>C17*C18</f>
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19" si="5">D17*D18</f>
-        <v>0</v>
+        <v>13.799999999999999</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:K19" si="6">E17*E18</f>
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="F19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>14.85</v>
       </c>
       <c r="G19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>14.549999999999999</v>
       </c>
       <c r="I19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="J19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
@@ -1170,17 +1208,34 @@
         <f>L19/O$31</f>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
       <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -1188,8 +1243,10 @@
         <v>100</v>
       </c>
       <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -1224,8 +1281,10 @@
         <v>0.25</v>
       </c>
       <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C25">
         <f>C23*C24</f>
         <v>0</v>
@@ -1270,69 +1329,167 @@
         <f>L25/O$31</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27">
+        <v>100</v>
+      </c>
       <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.15</v>
+      </c>
+      <c r="D28">
+        <v>0.15</v>
+      </c>
+      <c r="E28">
+        <v>0.15</v>
+      </c>
+      <c r="F28">
+        <v>0.15</v>
+      </c>
+      <c r="G28">
+        <v>0.15</v>
+      </c>
+      <c r="H28">
+        <v>0.15</v>
+      </c>
+      <c r="I28">
+        <v>0.15</v>
+      </c>
+      <c r="J28">
+        <v>0.15</v>
+      </c>
+      <c r="K28">
+        <v>0.15</v>
+      </c>
+      <c r="L28">
+        <v>0.15</v>
+      </c>
       <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f>C27*C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:L29" si="11">D27*D28</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
       <c r="O29" s="5"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31">
-        <f>SUM(C9)</f>
-        <v>18</v>
+        <f t="shared" ref="C31:K31" si="12">SUM(C9,C19)</f>
+        <v>31.7</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:K31" si="11">SUM(D9)</f>
-        <v>16.8</v>
+        <f t="shared" si="12"/>
+        <v>29.6</v>
       </c>
       <c r="E31">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>33.700000000000003</v>
       </c>
       <c r="F31">
-        <f t="shared" si="11"/>
-        <v>20.6</v>
+        <f t="shared" si="12"/>
+        <v>34.450000000000003</v>
       </c>
       <c r="G31">
-        <f t="shared" si="11"/>
-        <v>9.8000000000000007</v>
+        <f t="shared" si="12"/>
+        <v>22.3</v>
       </c>
       <c r="H31">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>31.15</v>
       </c>
       <c r="I31">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>SUM(I9,I19)</f>
+        <v>24.1</v>
       </c>
       <c r="J31">
-        <f t="shared" si="11"/>
-        <v>17.600000000000001</v>
+        <f>SUM(J9,J19)</f>
+        <v>30.85</v>
       </c>
       <c r="K31">
-        <f t="shared" si="11"/>
-        <v>14.8</v>
+        <f t="shared" si="12"/>
+        <v>13.8</v>
       </c>
       <c r="L31">
-        <f>SUM(L9)</f>
-        <v>20</v>
+        <f>SUM(L9,L19)</f>
+        <v>35</v>
       </c>
       <c r="O31">
         <f>L9+L13+L16+L19+L25</f>
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>41</v>
       </c>
@@ -1343,39 +1500,39 @@
       </c>
       <c r="C34" s="1">
         <f>C31/$L$31</f>
-        <v>0.9</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="D34" s="1">
         <f>D31/$L$31</f>
-        <v>0.84000000000000008</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:K34" si="12">E31/$L$31</f>
-        <v>1</v>
+        <f t="shared" ref="E34:K34" si="13">E31/$L$31</f>
+        <v>0.96285714285714297</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="12"/>
-        <v>1.03</v>
+        <f>F31/$L$31</f>
+        <v>0.98428571428571432</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="12"/>
-        <v>0.49000000000000005</v>
+        <f t="shared" si="13"/>
+        <v>0.63714285714285712</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="12"/>
-        <v>0.05</v>
+        <f t="shared" si="13"/>
+        <v>0.89</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="12"/>
-        <v>0.05</v>
+        <f t="shared" si="13"/>
+        <v>0.68857142857142861</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="12"/>
-        <v>0.88000000000000012</v>
+        <f t="shared" si="13"/>
+        <v>0.88142857142857145</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="12"/>
-        <v>0.74</v>
+        <f t="shared" si="13"/>
+        <v>0.39428571428571429</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47DBEE1-3C62-3B4A-88CD-188A3C9BB33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C290B497-051C-3B41-8D91-F31010FB1692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8040" yWindow="5420" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Weight</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Curve</t>
-  </si>
-  <si>
-    <t>opt sum</t>
   </si>
   <si>
     <t>NE 533 Grading</t>
@@ -565,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:T36"/>
+  <dimension ref="B2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,36 +578,36 @@
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>49</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
       </c>
       <c r="L5" t="s">
         <v>1</v>
@@ -622,10 +619,10 @@
         <v>38</v>
       </c>
       <c r="P5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" t="s">
         <v>52</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>53</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>33</v>
@@ -737,6 +734,33 @@
       <c r="B8" t="s">
         <v>39</v>
       </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
       <c r="S8" s="2" t="s">
         <v>12</v>
       </c>
@@ -747,39 +771,39 @@
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>(C6+C8)*C7</f>
-        <v>17</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="D9">
         <f>(D6+D8)*D7</f>
-        <v>15.8</v>
+        <v>17.2</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="0">(E6+E8)*E7</f>
-        <v>19</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>19.600000000000001</v>
+        <f>(F6+F8)*F7</f>
+        <v>21</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>16.600000000000001</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>16.600000000000001</v>
+        <v>18</v>
       </c>
       <c r="K9">
         <f>(K6+K8)*K7</f>
-        <v>13.8</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="L9">
         <f>L6*L7</f>
@@ -871,33 +895,6 @@
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -911,39 +908,39 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>(C10+C12)*C11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f>(D10+D12)*D11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:L13" si="1">(E10+E12)*E11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>(G10+G12)*G11</f>
+        <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -1339,7 +1336,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1445,40 +1442,40 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:K31" si="12">SUM(C9,C19)</f>
-        <v>31.7</v>
+        <f t="shared" ref="C31:F31" si="12">SUM(C9,C19,C13,C16,C25)</f>
+        <v>33.1</v>
       </c>
       <c r="D31">
         <f t="shared" si="12"/>
-        <v>29.6</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <f t="shared" si="12"/>
-        <v>33.700000000000003</v>
+        <v>35.1</v>
       </c>
       <c r="F31">
         <f t="shared" si="12"/>
-        <v>34.450000000000003</v>
+        <v>35.85</v>
       </c>
       <c r="G31">
-        <f t="shared" si="12"/>
-        <v>22.3</v>
+        <f>SUM(G9,G19,G13,G16,G25)</f>
+        <v>23.700000000000003</v>
       </c>
       <c r="H31">
-        <f t="shared" si="12"/>
-        <v>31.15</v>
+        <f t="shared" ref="H31:K31" si="13">SUM(H9,H19,H13,H16,H25)</f>
+        <v>32.549999999999997</v>
       </c>
       <c r="I31">
-        <f>SUM(I9,I19)</f>
-        <v>24.1</v>
+        <f t="shared" si="13"/>
+        <v>25.5</v>
       </c>
       <c r="J31">
-        <f>SUM(J9,J19)</f>
-        <v>30.85</v>
+        <f t="shared" si="13"/>
+        <v>32.25</v>
       </c>
       <c r="K31">
-        <f t="shared" si="12"/>
-        <v>13.8</v>
+        <f t="shared" si="13"/>
+        <v>15.200000000000001</v>
       </c>
       <c r="L31">
         <f>SUM(L9,L19)</f>
@@ -1489,54 +1486,49 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C33" s="1">
         <f>C31/$L$31</f>
-        <v>0.90571428571428569</v>
-      </c>
-      <c r="D34" s="1">
+        <v>0.94571428571428573</v>
+      </c>
+      <c r="D33" s="1">
         <f>D31/$L$31</f>
-        <v>0.84571428571428575</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" ref="E34:K34" si="13">E31/$L$31</f>
-        <v>0.96285714285714297</v>
-      </c>
-      <c r="F34" s="1">
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" ref="E33:K33" si="14">E31/$L$31</f>
+        <v>1.0028571428571429</v>
+      </c>
+      <c r="F33" s="1">
         <f>F31/$L$31</f>
-        <v>0.98428571428571432</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.63714285714285712</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.89</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.68857142857142861</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.88142857142857145</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.39428571428571429</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+        <v>1.0242857142857142</v>
+      </c>
+      <c r="G33" s="1">
+        <f>G31/$L$31</f>
+        <v>0.67714285714285727</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="14"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="14"/>
+        <v>0.72857142857142854</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="14"/>
+        <v>0.92142857142857137</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="14"/>
+        <v>0.43428571428571433</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C290B497-051C-3B41-8D91-F31010FB1692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961CE242-71F8-BA4D-83C9-60EB3FF0237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="5420" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="8040" yWindow="4420" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Weight</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Project 2</t>
+  </si>
+  <si>
+    <t>plus optional</t>
+  </si>
+  <si>
+    <t>plus opt</t>
   </si>
 </sst>
 </file>
@@ -562,17 +568,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:T35"/>
+  <dimension ref="B2:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="12" max="13" width="15.5" customWidth="1"/>
     <col min="20" max="20" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -581,6 +587,11 @@
         <v>41</v>
       </c>
     </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>42</v>
@@ -613,9 +624,12 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>38</v>
       </c>
       <c r="P5" t="s">
@@ -665,15 +679,17 @@
       <c r="L6">
         <v>100</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6" s="3">
         <f>AVERAGE(C6:K6)</f>
         <v>76.222222222222229</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <f>STDEV(C6:K6)</f>
         <v>18.646566559140165</v>
       </c>
-      <c r="O6" s="3"/>
       <c r="P6" s="3">
         <f>AVERAGE(C6:G6)</f>
         <v>80.2</v>
@@ -694,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D7">
         <v>0.2</v>
@@ -722,6 +738,9 @@
       </c>
       <c r="L7">
         <v>0.2</v>
+      </c>
+      <c r="M7">
+        <v>0.18</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>10</v>
@@ -771,7 +790,7 @@
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>(C6+C8)*C7</f>
-        <v>18.400000000000002</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="D9">
         <f>(D6+D8)*D7</f>
@@ -809,9 +828,9 @@
         <f>L6*L7</f>
         <v>20</v>
       </c>
-      <c r="O9" s="5">
-        <f>L9/O$31</f>
-        <v>0.2</v>
+      <c r="M9">
+        <f>M6*M7</f>
+        <v>18</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -829,17 +848,25 @@
       <c r="L10">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="e">
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3" t="e">
         <f>AVERAGE(C10:K10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="3" t="e">
+      <c r="O10" s="3" t="e">
         <f>STDEV(C10:K10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="P10" s="3" t="e">
+        <f>AVERAGE(C10:G10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="3" t="e">
+        <f>AVERAGE(H10:K10)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S10" s="2" t="s">
         <v>16</v>
       </c>
@@ -852,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D11">
         <v>0.2</v>
@@ -881,7 +908,9 @@
       <c r="L11">
         <v>0.2</v>
       </c>
-      <c r="O11" s="5"/>
+      <c r="M11">
+        <v>0.18</v>
+      </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="S11" s="2" t="s">
@@ -895,7 +924,6 @@
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="S12" s="2" t="s">
@@ -946,9 +974,9 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="O13" s="5">
-        <f>L13/O$31</f>
-        <v>0.2</v>
+      <c r="M13">
+        <f t="shared" ref="M13" si="2">(M10+M12)*M11</f>
+        <v>18</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -966,9 +994,25 @@
       <c r="L14">
         <v>100</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3" t="e">
+        <f>AVERAGE(C14:K14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="3" t="e">
+        <f>STDEV(C14:K14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" s="3" t="e">
+        <f>AVERAGE(C14:G14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="3" t="e">
+        <f>AVERAGE(H14:K14)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S14" s="2" t="s">
         <v>24</v>
       </c>
@@ -981,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D15">
         <v>0.2</v>
@@ -1010,7 +1054,9 @@
       <c r="L15">
         <v>0.2</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="M15">
+        <v>0.18</v>
+      </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="S15" s="2" t="s">
@@ -1026,44 +1072,44 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16" si="2">D14*D15</f>
+        <f t="shared" ref="D16" si="3">D14*D15</f>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:K16" si="3">E14*E15</f>
+        <f t="shared" ref="E16:K16" si="4">E14*E15</f>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16" si="4">L14*L15</f>
+        <f t="shared" ref="L16:M16" si="5">L14*L15</f>
         <v>20</v>
       </c>
-      <c r="O16" s="5">
-        <f>L16/O$31</f>
-        <v>0.2</v>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1106,9 +1152,25 @@
       <c r="L17">
         <v>100</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <f>AVERAGE(C17:K17)</f>
+        <v>95.375</v>
+      </c>
+      <c r="O17" s="3">
+        <f>STDEV(C17:K17)</f>
+        <v>3.2043497223082786</v>
+      </c>
+      <c r="P17" s="3">
+        <f>AVERAGE(C17:G17)</f>
+        <v>95.4</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>AVERAGE(H17:K17)</f>
+        <v>95.333333333333329</v>
+      </c>
       <c r="S17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1121,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D18">
         <v>0.15</v>
@@ -1150,7 +1212,9 @@
       <c r="L18">
         <v>0.15</v>
       </c>
-      <c r="O18" s="5"/>
+      <c r="M18">
+        <v>0.13</v>
+      </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="S18" s="2" t="s">
@@ -1163,47 +1227,47 @@
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C19">
         <f>C17*C18</f>
+        <v>12.74</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19" si="6">D17*D18</f>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:K19" si="7">E17*E18</f>
         <v>14.7</v>
       </c>
-      <c r="D19">
-        <f t="shared" ref="D19" si="5">D17*D18</f>
-        <v>13.799999999999999</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ref="E19:K19" si="6">E17*E18</f>
-        <v>14.7</v>
-      </c>
       <c r="F19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.85</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.5</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.549999999999999</v>
       </c>
       <c r="I19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.1</v>
       </c>
       <c r="J19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.25</v>
       </c>
       <c r="K19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19" si="7">L17*L18</f>
+        <f t="shared" ref="L19:M19" si="8">L17*L18</f>
         <v>15</v>
       </c>
-      <c r="O19" s="5">
-        <f>L19/O$31</f>
-        <v>0.15</v>
+      <c r="M19">
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -1218,318 +1282,273 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3" t="e">
+        <f>AVERAGE(C21:K21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="3" t="e">
+        <f>STDEV(C21:K21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="3" t="e">
+        <f>AVERAGE(C21:G21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" s="3" t="e">
+        <f>AVERAGE(H21:K21)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="O22" s="5"/>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.2</v>
+      </c>
+      <c r="D22">
+        <v>0.25</v>
+      </c>
+      <c r="E22">
+        <v>0.25</v>
+      </c>
+      <c r="F22">
+        <v>0.25</v>
+      </c>
+      <c r="G22">
+        <v>0.25</v>
+      </c>
+      <c r="H22">
+        <v>0.25</v>
+      </c>
+      <c r="I22">
+        <v>0.25</v>
+      </c>
+      <c r="J22">
+        <v>0.25</v>
+      </c>
+      <c r="K22">
+        <v>0.25</v>
+      </c>
+      <c r="L22">
+        <v>0.25</v>
+      </c>
+      <c r="M22">
+        <v>0.2</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>37</v>
+      <c r="C23">
+        <f>C21*C22</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23" si="9">D21*D22</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:K23" si="10">E21*E22</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
-      </c>
-      <c r="O23" s="5"/>
+        <f t="shared" ref="L23:M23" si="11">L21*L22</f>
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0.25</v>
-      </c>
-      <c r="D24">
-        <v>0.25</v>
-      </c>
-      <c r="E24">
-        <v>0.25</v>
-      </c>
-      <c r="F24">
-        <v>0.25</v>
-      </c>
-      <c r="G24">
-        <v>0.25</v>
-      </c>
-      <c r="H24">
-        <v>0.25</v>
-      </c>
-      <c r="I24">
-        <v>0.25</v>
-      </c>
-      <c r="J24">
-        <v>0.25</v>
-      </c>
-      <c r="K24">
-        <v>0.25</v>
-      </c>
-      <c r="L24">
-        <v>0.25</v>
-      </c>
-      <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <f>C23*C24</f>
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ref="D25" si="8">D23*D24</f>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ref="E25:K25" si="9">E23*E24</f>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f t="shared" ref="L25" si="10">L23*L24</f>
-        <v>25</v>
-      </c>
-      <c r="O25" s="5">
-        <f>L25/O$31</f>
-        <v>0.25</v>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="M25">
+        <v>100</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="O26" s="5"/>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.13</v>
+      </c>
+      <c r="M26">
+        <v>0.13</v>
+      </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27">
-        <v>100</v>
-      </c>
-      <c r="O27" s="5"/>
+      <c r="C27">
+        <f>C25*C26</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27" si="12">M25*M26</f>
+        <v>13</v>
+      </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0.15</v>
-      </c>
-      <c r="D28">
-        <v>0.15</v>
-      </c>
-      <c r="E28">
-        <v>0.15</v>
-      </c>
-      <c r="F28">
-        <v>0.15</v>
-      </c>
-      <c r="G28">
-        <v>0.15</v>
-      </c>
-      <c r="H28">
-        <v>0.15</v>
-      </c>
-      <c r="I28">
-        <v>0.15</v>
-      </c>
-      <c r="J28">
-        <v>0.15</v>
-      </c>
-      <c r="K28">
-        <v>0.15</v>
-      </c>
-      <c r="L28">
-        <v>0.15</v>
-      </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-    </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
       <c r="C29">
-        <f>C27*C28</f>
-        <v>0</v>
+        <f>SUM(C9,C19,C13,C16,C23,C27)</f>
+        <v>29.299999999999997</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:L29" si="11">D27*D28</f>
-        <v>0</v>
+        <f>SUM(D9,D19,D13,D16,D23)</f>
+        <v>31</v>
       </c>
       <c r="E29">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>SUM(E9,E19,E13,E16,E23)</f>
+        <v>35.1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>SUM(F9,F19,F13,F16,F23)</f>
+        <v>35.85</v>
       </c>
       <c r="G29">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>SUM(G9,G19,G13,G16,G23)</f>
+        <v>23.700000000000003</v>
       </c>
       <c r="H29">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>SUM(H9,H19,H13,H16,H23)</f>
+        <v>32.549999999999997</v>
       </c>
       <c r="I29">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>SUM(I9,I19,I13,I16,I23)</f>
+        <v>25.5</v>
       </c>
       <c r="J29">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>SUM(J9,J19,J13,J16,J23)</f>
+        <v>32.25</v>
       </c>
       <c r="K29">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>SUM(K9,K19,K13,K16,K23)</f>
+        <v>15.200000000000001</v>
       </c>
       <c r="L29">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+        <f>SUM(L9,L19)</f>
+        <v>35</v>
+      </c>
+      <c r="M29">
+        <f>SUM(M9,M19)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:F31" si="12">SUM(C9,C19,C13,C16,C25)</f>
-        <v>33.1</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="12"/>
-        <v>35.1</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="12"/>
-        <v>35.85</v>
-      </c>
-      <c r="G31">
-        <f>SUM(G9,G19,G13,G16,G25)</f>
-        <v>23.700000000000003</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ref="H31:K31" si="13">SUM(H9,H19,H13,H16,H25)</f>
-        <v>32.549999999999997</v>
-      </c>
-      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <f>C29/$M$29</f>
+        <v>0.94516129032258056</v>
+      </c>
+      <c r="D31" s="1">
+        <f>D29/$L$29</f>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ref="E31:K31" si="13">E29/$L$29</f>
+        <v>1.0028571428571429</v>
+      </c>
+      <c r="F31" s="1">
+        <f>F29/$L$29</f>
+        <v>1.0242857142857142</v>
+      </c>
+      <c r="G31" s="1">
+        <f>G29/$L$29</f>
+        <v>0.67714285714285727</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="13"/>
-        <v>25.5</v>
-      </c>
-      <c r="J31">
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="I31" s="1">
         <f t="shared" si="13"/>
-        <v>32.25</v>
-      </c>
-      <c r="K31">
+        <v>0.72857142857142854</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="13"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="L31">
-        <f>SUM(L9,L19)</f>
-        <v>35</v>
-      </c>
-      <c r="O31">
-        <f>L9+L13+L16+L19+L25</f>
+        <v>0.92142857142857137</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="13"/>
+        <v>0.43428571428571433</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33">
+        <f>SUM(L23,L19,L16,L13,L9)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1">
-        <f>C31/$L$31</f>
-        <v>0.94571428571428573</v>
-      </c>
-      <c r="D33" s="1">
-        <f>D31/$L$31</f>
-        <v>0.88571428571428568</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" ref="E33:K33" si="14">E31/$L$31</f>
-        <v>1.0028571428571429</v>
-      </c>
-      <c r="F33" s="1">
-        <f>F31/$L$31</f>
-        <v>1.0242857142857142</v>
-      </c>
-      <c r="G33" s="1">
-        <f>G31/$L$31</f>
-        <v>0.67714285714285727</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="14"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="14"/>
-        <v>0.72857142857142854</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="14"/>
-        <v>0.92142857142857137</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="14"/>
-        <v>0.43428571428571433</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>33</v>
+      <c r="M33">
+        <f>SUM(M23,M19,M16,M13,M9,M27)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961CE242-71F8-BA4D-83C9-60EB3FF0237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8CE672-57DA-4541-8E64-35AE41B7B07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="4420" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="18120" yWindow="6240" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Weight</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Stdev</t>
   </si>
   <si>
-    <t>Bonus</t>
-  </si>
-  <si>
     <t>Curve</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>plus opt</t>
+  </si>
+  <si>
+    <t>curve</t>
+  </si>
+  <si>
+    <t>sum+curve</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:T33"/>
+  <dimension ref="B2:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,47 +587,47 @@
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>47</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
       </c>
       <c r="L5" t="s">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
         <v>36</v>
@@ -633,10 +636,10 @@
         <v>38</v>
       </c>
       <c r="P5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
         <v>51</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>52</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>33</v>
@@ -845,27 +848,51 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>86</v>
+      </c>
+      <c r="E10">
+        <v>101</v>
+      </c>
+      <c r="F10">
+        <v>97</v>
+      </c>
+      <c r="G10">
+        <v>88</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <v>93</v>
+      </c>
+      <c r="K10">
+        <v>79</v>
+      </c>
       <c r="L10">
         <v>100</v>
       </c>
       <c r="M10">
         <v>100</v>
       </c>
-      <c r="N10" s="3" t="e">
+      <c r="N10" s="3">
         <f>AVERAGE(C10:K10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="3" t="e">
+        <v>90.25</v>
+      </c>
+      <c r="O10" s="3">
         <f>STDEV(C10:K10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="3" t="e">
+        <v>6.7981089807597019</v>
+      </c>
+      <c r="P10" s="3">
         <f>AVERAGE(C10:G10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="3" t="e">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="3">
         <f>AVERAGE(H10:K10)</f>
-        <v>#DIV/0!</v>
+        <v>87.333333333333329</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>16</v>
@@ -922,7 +949,34 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -936,39 +990,39 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>(C10+C12)*C11</f>
-        <v>0</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="D13">
         <f>(D10+D12)*D11</f>
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:L13" si="1">(E10+E12)*E11</f>
-        <v>0</v>
+        <v>21.200000000000003</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="G13">
         <f>(G10+G12)*G11</f>
-        <v>0</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -1406,7 +1460,7 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1454,99 +1508,172 @@
       </c>
       <c r="C29">
         <f>SUM(C9,C19,C13,C16,C23,C27)</f>
-        <v>29.299999999999997</v>
+        <v>46.039999999999992</v>
       </c>
       <c r="D29">
-        <f>SUM(D9,D19,D13,D16,D23)</f>
-        <v>31</v>
+        <f t="shared" ref="D29:K29" si="13">SUM(D9,D19,D13,D16,D23)</f>
+        <v>49.2</v>
       </c>
       <c r="E29">
-        <f>SUM(E9,E19,E13,E16,E23)</f>
-        <v>35.1</v>
+        <f t="shared" si="13"/>
+        <v>56.300000000000004</v>
       </c>
       <c r="F29">
-        <f>SUM(F9,F19,F13,F16,F23)</f>
-        <v>35.85</v>
+        <f t="shared" si="13"/>
+        <v>56.25</v>
       </c>
       <c r="G29">
-        <f>SUM(G9,G19,G13,G16,G23)</f>
-        <v>23.700000000000003</v>
+        <f t="shared" si="13"/>
+        <v>42.300000000000004</v>
       </c>
       <c r="H29">
-        <f>SUM(H9,H19,H13,H16,H23)</f>
-        <v>32.549999999999997</v>
+        <f t="shared" si="13"/>
+        <v>33.549999999999997</v>
       </c>
       <c r="I29">
-        <f>SUM(I9,I19,I13,I16,I23)</f>
-        <v>25.5</v>
+        <f t="shared" si="13"/>
+        <v>44.5</v>
       </c>
       <c r="J29">
-        <f>SUM(J9,J19,J13,J16,J23)</f>
-        <v>32.25</v>
+        <f t="shared" si="13"/>
+        <v>51.85</v>
       </c>
       <c r="K29">
-        <f>SUM(K9,K19,K13,K16,K23)</f>
-        <v>15.200000000000001</v>
+        <f t="shared" si="13"/>
+        <v>32</v>
       </c>
       <c r="L29">
-        <f>SUM(L9,L19)</f>
-        <v>35</v>
+        <f>SUM(L9,L19,L13)</f>
+        <v>55</v>
       </c>
       <c r="M29">
-        <f>SUM(M9,M19)</f>
-        <v>31</v>
+        <f>SUM(M9,M19,M13)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <f>C29+C30</f>
+        <v>46.039999999999992</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:K31" si="14">D29+D30</f>
+        <v>49.2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="14"/>
+        <v>56.300000000000004</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="14"/>
+        <v>56.25</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="14"/>
+        <v>42.300000000000004</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="14"/>
+        <v>33.549999999999997</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="14"/>
+        <v>44.5</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="14"/>
+        <v>51.85</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="1">
-        <f>C29/$M$29</f>
-        <v>0.94516129032258056</v>
-      </c>
-      <c r="D31" s="1">
-        <f>D29/$L$29</f>
-        <v>0.88571428571428568</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" ref="E31:K31" si="13">E29/$L$29</f>
-        <v>1.0028571428571429</v>
-      </c>
-      <c r="F31" s="1">
-        <f>F29/$L$29</f>
-        <v>1.0242857142857142</v>
-      </c>
-      <c r="G31" s="1">
-        <f>G29/$L$29</f>
-        <v>0.67714285714285727</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="13"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="13"/>
-        <v>0.72857142857142854</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="13"/>
-        <v>0.92142857142857137</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="13"/>
-        <v>0.43428571428571433</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="C32" s="1">
+        <f>C31/$M$29</f>
+        <v>0.93959183673469371</v>
+      </c>
+      <c r="D32" s="1">
+        <f>D31/$L$29</f>
+        <v>0.89454545454545464</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ref="E32:K32" si="15">E31/$L$29</f>
+        <v>1.0236363636363637</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="15"/>
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="15"/>
+        <v>0.76909090909090916</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="15"/>
+        <v>0.61</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="15"/>
+        <v>0.80909090909090908</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="15"/>
+        <v>0.94272727272727275</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="15"/>
+        <v>0.58181818181818179</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <f>SUM(L23,L19,L16,L13,L9)</f>
         <v>100</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <f>SUM(M23,M19,M16,M13,M9,M27)</f>
         <v>100</v>
       </c>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8CE672-57DA-4541-8E64-35AE41B7B07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFAB3BB-AD7B-8B45-AA2D-1592AC9DFA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="6240" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="5520" yWindow="6860" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Weight</t>
   </si>
@@ -571,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:T34"/>
+  <dimension ref="B2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,6 +594,9 @@
       <c r="C3" t="s">
         <v>54</v>
       </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
@@ -725,7 +728,7 @@
         <v>0.2</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="H7">
         <v>0.2</v>
@@ -809,7 +812,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>10.200000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -918,7 +921,7 @@
         <v>0.2</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="H11">
         <v>0.2</v>
@@ -1006,7 +1009,7 @@
       </c>
       <c r="G13">
         <f>(G10+G12)*G11</f>
-        <v>18.600000000000001</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -1091,7 +1094,7 @@
         <v>0.2</v>
       </c>
       <c r="G15">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="H15">
         <v>0.2</v>
@@ -1121,49 +1124,35 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
       <c r="C16">
-        <f>C14*C15</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16" si="3">D14*D15</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:K16" si="4">E14*E15</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ref="L16:M16" si="5">L14*L15</f>
-        <v>20</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1175,56 +1164,52 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4">
-        <v>98</v>
-      </c>
-      <c r="D17" s="4">
-        <v>92</v>
-      </c>
-      <c r="E17" s="4">
-        <v>98</v>
-      </c>
-      <c r="F17" s="4">
-        <v>99</v>
-      </c>
-      <c r="G17" s="4">
-        <v>90</v>
-      </c>
-      <c r="H17" s="4">
-        <v>97</v>
-      </c>
-      <c r="I17" s="4">
-        <v>94</v>
-      </c>
-      <c r="J17" s="4">
-        <v>95</v>
-      </c>
-      <c r="K17" s="4"/>
+      <c r="C17">
+        <f>C14*C15</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>D14*D15</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>E14*E15</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>F14*F15</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>(G14+G16)*G15</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H17">
+        <f>H14*H15</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>I14*I15</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>J14*J15</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>K14*K15</f>
+        <v>0</v>
+      </c>
       <c r="L17">
-        <v>100</v>
+        <f>L14*L15</f>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <f>AVERAGE(C17:K17)</f>
-        <v>95.375</v>
-      </c>
-      <c r="O17" s="3">
-        <f>STDEV(C17:K17)</f>
-        <v>3.2043497223082786</v>
-      </c>
-      <c r="P17" s="3">
-        <f>AVERAGE(C17:G17)</f>
-        <v>95.4</v>
-      </c>
-      <c r="Q17" s="3">
-        <f>AVERAGE(H17:K17)</f>
-        <v>95.333333333333329</v>
-      </c>
+        <f>M14*M15</f>
+        <v>18</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="S17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1234,43 +1219,55 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0.13</v>
-      </c>
-      <c r="D18">
-        <v>0.15</v>
-      </c>
-      <c r="E18">
-        <v>0.15</v>
-      </c>
-      <c r="F18">
-        <v>0.15</v>
-      </c>
-      <c r="G18">
-        <v>0.15</v>
-      </c>
-      <c r="H18">
-        <v>0.15</v>
-      </c>
-      <c r="I18">
-        <v>0.15</v>
-      </c>
-      <c r="J18">
-        <v>0.15</v>
-      </c>
-      <c r="K18">
-        <v>0.15</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>98</v>
+      </c>
+      <c r="D18" s="4">
+        <v>92</v>
+      </c>
+      <c r="E18" s="4">
+        <v>98</v>
+      </c>
+      <c r="F18" s="4">
+        <v>99</v>
+      </c>
+      <c r="G18" s="4">
+        <v>90</v>
+      </c>
+      <c r="H18" s="4">
+        <v>97</v>
+      </c>
+      <c r="I18" s="4">
+        <v>94</v>
+      </c>
+      <c r="J18" s="4">
+        <v>95</v>
+      </c>
+      <c r="K18" s="4"/>
       <c r="L18">
-        <v>0.15</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>0.13</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
+        <f>AVERAGE(C18:K18)</f>
+        <v>95.375</v>
+      </c>
+      <c r="O18" s="3">
+        <f>STDEV(C18:K18)</f>
+        <v>3.2043497223082786</v>
+      </c>
+      <c r="P18" s="3">
+        <f>AVERAGE(C18:G18)</f>
+        <v>95.4</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>AVERAGE(H18:K18)</f>
+        <v>95.333333333333329</v>
+      </c>
       <c r="S18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1279,402 +1276,449 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <f>C17*C18</f>
-        <v>12.74</v>
+        <v>0.13</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19" si="6">D17*D18</f>
-        <v>13.799999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:K19" si="7">E17*E18</f>
-        <v>14.7</v>
+        <v>0.15</v>
       </c>
       <c r="F19">
-        <f t="shared" si="7"/>
-        <v>14.85</v>
+        <v>0.15</v>
       </c>
       <c r="G19">
-        <f t="shared" si="7"/>
-        <v>13.5</v>
+        <v>0.13</v>
       </c>
       <c r="H19">
-        <f t="shared" si="7"/>
-        <v>14.549999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="I19">
-        <f t="shared" si="7"/>
-        <v>14.1</v>
+        <v>0.15</v>
       </c>
       <c r="J19">
-        <f t="shared" si="7"/>
-        <v>14.25</v>
+        <v>0.15</v>
       </c>
       <c r="K19">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:M19" si="8">L17*L18</f>
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="M19">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="C20">
+        <f>C18*C19</f>
+        <v>12.74</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="3">D18*D19</f>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:K20" si="4">E18*E19</f>
+        <v>14.7</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>14.85</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>14.549999999999999</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>14.1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:M20" si="5">L18*L19</f>
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21">
-        <v>100</v>
-      </c>
-      <c r="M21">
-        <v>100</v>
-      </c>
-      <c r="N21" s="3" t="e">
-        <f>AVERAGE(C21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="3" t="e">
-        <f>STDEV(C21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="3" t="e">
-        <f>AVERAGE(C21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="3" t="e">
-        <f>AVERAGE(H21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0.2</v>
-      </c>
-      <c r="D22">
+        <v>37</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3" t="e">
+        <f>AVERAGE(C22:K22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="3" t="e">
+        <f>STDEV(C22:K22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="3" t="e">
+        <f>AVERAGE(C22:G22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="3" t="e">
+        <f>AVERAGE(H22:K22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.2</v>
+      </c>
+      <c r="D23">
         <v>0.25</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.25</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>0.25</v>
       </c>
-      <c r="G22">
+      <c r="G23">
+        <v>0.2</v>
+      </c>
+      <c r="H23">
         <v>0.25</v>
       </c>
-      <c r="H22">
+      <c r="I23">
         <v>0.25</v>
       </c>
-      <c r="I22">
+      <c r="J23">
         <v>0.25</v>
       </c>
-      <c r="J22">
+      <c r="K23">
         <v>0.25</v>
       </c>
-      <c r="K22">
+      <c r="L23">
         <v>0.25</v>
       </c>
-      <c r="L22">
-        <v>0.25</v>
-      </c>
-      <c r="M22">
-        <v>0.2</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <f>C21*C22</f>
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23" si="9">D21*D22</f>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ref="E23:K23" si="10">E21*E22</f>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f t="shared" ref="L23:M23" si="11">L21*L22</f>
-        <v>25</v>
-      </c>
       <c r="M23">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>C22*C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24" si="6">D22*D23</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:K24" si="7">E22*E23</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:M24" si="8">L22*L23</f>
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="M25">
-        <v>100</v>
-      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0.13</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
       <c r="M26">
-        <v>0.13</v>
+        <v>100</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
       <c r="C27">
-        <f>C25*C26</f>
-        <v>0</v>
+        <v>0.13</v>
+      </c>
+      <c r="G27">
+        <v>0.13</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27" si="12">M25*M26</f>
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <f>SUM(C9,C19,C13,C16,C23,C27)</f>
-        <v>46.039999999999992</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ref="D29:K29" si="13">SUM(D9,D19,D13,D16,D23)</f>
-        <v>49.2</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="13"/>
-        <v>56.300000000000004</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="13"/>
-        <v>56.25</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="13"/>
-        <v>42.300000000000004</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="13"/>
-        <v>33.549999999999997</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="13"/>
-        <v>44.5</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="13"/>
-        <v>51.85</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="13"/>
-        <v>32</v>
-      </c>
-      <c r="L29">
-        <f>SUM(L9,L19,L13)</f>
-        <v>55</v>
-      </c>
-      <c r="M29">
-        <f>SUM(M9,M19,M13)</f>
-        <v>49</v>
-      </c>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f>C26*C27</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>G26*G27</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28" si="9">M26*M27</f>
+        <v>13</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C9,C20,C13,C17,C24,C28)</f>
+        <v>46.039999999999992</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D9,D20,D13,D17,D24)</f>
+        <v>49.2</v>
+      </c>
+      <c r="E30">
+        <f>SUM(E9,E20,E13,E17,E24)</f>
+        <v>56.300000000000004</v>
+      </c>
+      <c r="F30">
+        <f>SUM(F9,F20,F13,F17,F24)</f>
+        <v>56.25</v>
+      </c>
+      <c r="G30">
+        <f>SUM(G9,G20,G13,G17,G24,G28)</f>
+        <v>38.520000000000003</v>
+      </c>
+      <c r="H30">
+        <f>SUM(H9,H20,H13,H17,H24)</f>
+        <v>33.549999999999997</v>
+      </c>
+      <c r="I30">
+        <f>SUM(I9,I20,I13,I17,I24)</f>
+        <v>44.5</v>
+      </c>
+      <c r="J30">
+        <f>SUM(J9,J20,J13,J17,J24)</f>
+        <v>51.85</v>
+      </c>
+      <c r="K30">
+        <f>SUM(K9,K20,K13,K17,K24)</f>
+        <v>32</v>
+      </c>
+      <c r="L30">
+        <f>SUM(L9,L20,L13)</f>
         <v>55</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
+      <c r="M30">
+        <f>SUM(M9,M20,M13)</f>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31">
-        <f>C29+C30</f>
-        <v>46.039999999999992</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:K31" si="14">D29+D30</f>
-        <v>49.2</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="14"/>
-        <v>56.300000000000004</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="14"/>
-        <v>56.25</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="14"/>
-        <v>42.300000000000004</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="14"/>
-        <v>33.549999999999997</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="14"/>
-        <v>44.5</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="14"/>
-        <v>51.85</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="14"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <f>C30+C31</f>
+        <v>46.039999999999992</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:K32" si="10">D30+D31</f>
+        <v>49.2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="10"/>
+        <v>56.300000000000004</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="10"/>
+        <v>56.25</v>
+      </c>
+      <c r="G32">
+        <f>G30+G31</f>
+        <v>38.520000000000003</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="10"/>
+        <v>33.549999999999997</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="10"/>
+        <v>44.5</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="10"/>
+        <v>51.85</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="1">
-        <f>C31/$M$29</f>
+      <c r="C33" s="1">
+        <f>C32/$M$30</f>
         <v>0.93959183673469371</v>
       </c>
-      <c r="D32" s="1">
-        <f>D31/$L$29</f>
+      <c r="D33" s="1">
+        <f>D32/$L$30</f>
         <v>0.89454545454545464</v>
       </c>
-      <c r="E32" s="1">
-        <f t="shared" ref="E32:K32" si="15">E31/$L$29</f>
+      <c r="E33" s="1">
+        <f>E32/$L$30</f>
         <v>1.0236363636363637</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" si="15"/>
+      <c r="F33" s="1">
+        <f>F32/$L$30</f>
         <v>1.0227272727272727</v>
       </c>
-      <c r="G32" s="1">
-        <f t="shared" si="15"/>
-        <v>0.76909090909090916</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="15"/>
+      <c r="G33" s="1">
+        <f>G32/$M$30</f>
+        <v>0.78612244897959194</v>
+      </c>
+      <c r="H33" s="1">
+        <f>H32/$L$30</f>
         <v>0.61</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="15"/>
+      <c r="I33" s="1">
+        <f>I32/$L$30</f>
         <v>0.80909090909090908</v>
       </c>
-      <c r="J32" s="1">
-        <f t="shared" si="15"/>
+      <c r="J33" s="1">
+        <f>J32/$L$30</f>
         <v>0.94272727272727275</v>
       </c>
-      <c r="K32" s="1">
-        <f t="shared" si="15"/>
+      <c r="K33" s="1">
+        <f>K32/$L$30</f>
         <v>0.58181818181818179</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="L34">
-        <f>SUM(L23,L19,L16,L13,L9)</f>
+      <c r="L35">
+        <f>SUM(L24,L20,L17,L13,L9)</f>
         <v>100</v>
       </c>
-      <c r="M34">
-        <f>SUM(M23,M19,M16,M13,M9,M27)</f>
+      <c r="M35">
+        <f>SUM(M24,M20,M17,M13,M9,M28)</f>
         <v>100</v>
       </c>
     </row>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFAB3BB-AD7B-8B45-AA2D-1592AC9DFA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0636AC15-6DA3-A848-8233-9EEB4D890E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="6860" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Weight</t>
   </si>
@@ -574,7 +574,7 @@
   <dimension ref="B2:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,6 +594,9 @@
       <c r="C3" t="s">
         <v>54</v>
       </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
       <c r="G3" t="s">
         <v>54</v>
       </c>
@@ -719,7 +722,7 @@
         <v>0.18</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E7">
         <v>0.2</v>
@@ -760,31 +763,31 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>12</v>
@@ -796,39 +799,39 @@
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>(C6+C8)*C7</f>
-        <v>16.559999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="D9">
         <f>(D6+D8)*D7</f>
-        <v>17.2</v>
+        <v>15.12</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="0">(E6+E8)*E7</f>
-        <v>20.400000000000002</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <f>(F6+F8)*F7</f>
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>9.18</v>
+        <v>8.82</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="K9">
         <f>(K6+K8)*K7</f>
-        <v>15.200000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="L9">
         <f>L6*L7</f>
@@ -912,7 +915,7 @@
         <v>0.18</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E11">
         <v>0.2</v>
@@ -997,7 +1000,7 @@
       </c>
       <c r="D13">
         <f>(D10+D12)*D11</f>
-        <v>18.2</v>
+        <v>16.38</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:L13" si="1">(E10+E12)*E11</f>
@@ -1085,7 +1088,7 @@
         <v>0.18</v>
       </c>
       <c r="D15">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E15">
         <v>0.2</v>
@@ -1185,27 +1188,27 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="H17">
-        <f>H14*H15</f>
+        <f t="shared" ref="H17:M17" si="3">H14*H15</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>I14*I15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>J14*J15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>K14*K15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>L14*L15</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M17">
-        <f>M14*M15</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P17" s="5"/>
@@ -1321,43 +1324,43 @@
         <v>12.74</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20" si="3">D18*D19</f>
+        <f t="shared" ref="D20" si="4">D18*D19</f>
         <v>13.799999999999999</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:K20" si="4">E18*E19</f>
+        <f t="shared" ref="E20:K20" si="5">E18*E19</f>
         <v>14.7</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.85</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.700000000000001</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.549999999999999</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.1</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.25</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:M20" si="5">L18*L19</f>
+        <f t="shared" ref="L20:M20" si="6">L18*L19</f>
         <v>15</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="P20" s="5"/>
@@ -1411,7 +1414,7 @@
         <v>0.2</v>
       </c>
       <c r="D23">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E23">
         <v>0.25</v>
@@ -1449,43 +1452,43 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24" si="6">D22*D23</f>
+        <f t="shared" ref="D24" si="7">D22*D23</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:K24" si="7">E22*E23</f>
+        <f t="shared" ref="E24:K24" si="8">E22*E23</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:M24" si="8">L22*L23</f>
+        <f t="shared" ref="L24:M24" si="9">L22*L23</f>
         <v>25</v>
       </c>
       <c r="M24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="P24" s="5"/>
@@ -1521,6 +1524,9 @@
       <c r="C27">
         <v>0.13</v>
       </c>
+      <c r="D27">
+        <v>0.13</v>
+      </c>
       <c r="G27">
         <v>0.13</v>
       </c>
@@ -1535,12 +1541,16 @@
         <f>C26*C27</f>
         <v>0</v>
       </c>
+      <c r="D28">
+        <f>D26*D27</f>
+        <v>0</v>
+      </c>
       <c r="G28">
         <f>G26*G27</f>
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28" si="9">M26*M27</f>
+        <f t="shared" ref="M28" si="10">M26*M27</f>
         <v>13</v>
       </c>
       <c r="P28" s="5"/>
@@ -1552,39 +1562,39 @@
       </c>
       <c r="C30">
         <f>SUM(C9,C20,C13,C17,C24,C28)</f>
-        <v>46.039999999999992</v>
+        <v>45.679999999999993</v>
       </c>
       <c r="D30">
-        <f>SUM(D9,D20,D13,D17,D24)</f>
-        <v>49.2</v>
+        <f>SUM(D9,D20,D13,D17,D24,D28)</f>
+        <v>45.3</v>
       </c>
       <c r="E30">
         <f>SUM(E9,E20,E13,E17,E24)</f>
-        <v>56.300000000000004</v>
+        <v>55.900000000000006</v>
       </c>
       <c r="F30">
         <f>SUM(F9,F20,F13,F17,F24)</f>
-        <v>56.25</v>
+        <v>55.850000000000009</v>
       </c>
       <c r="G30">
         <f>SUM(G9,G20,G13,G17,G24,G28)</f>
-        <v>38.520000000000003</v>
+        <v>38.160000000000004</v>
       </c>
       <c r="H30">
         <f>SUM(H9,H20,H13,H17,H24)</f>
-        <v>33.549999999999997</v>
+        <v>33.15</v>
       </c>
       <c r="I30">
         <f>SUM(I9,I20,I13,I17,I24)</f>
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="J30">
         <f>SUM(J9,J20,J13,J17,J24)</f>
-        <v>51.85</v>
+        <v>51.45</v>
       </c>
       <c r="K30">
         <f>SUM(K9,K20,K13,K17,K24)</f>
-        <v>32</v>
+        <v>31.6</v>
       </c>
       <c r="L30">
         <f>SUM(L9,L20,L13)</f>
@@ -1633,39 +1643,39 @@
       </c>
       <c r="C32">
         <f>C30+C31</f>
-        <v>46.039999999999992</v>
+        <v>45.679999999999993</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:K32" si="10">D30+D31</f>
-        <v>49.2</v>
+        <f t="shared" ref="D32:K32" si="11">D30+D31</f>
+        <v>45.3</v>
       </c>
       <c r="E32">
-        <f t="shared" si="10"/>
-        <v>56.300000000000004</v>
+        <f t="shared" si="11"/>
+        <v>55.900000000000006</v>
       </c>
       <c r="F32">
-        <f t="shared" si="10"/>
-        <v>56.25</v>
+        <f t="shared" si="11"/>
+        <v>55.850000000000009</v>
       </c>
       <c r="G32">
         <f>G30+G31</f>
-        <v>38.520000000000003</v>
+        <v>38.160000000000004</v>
       </c>
       <c r="H32">
-        <f t="shared" si="10"/>
-        <v>33.549999999999997</v>
+        <f t="shared" si="11"/>
+        <v>33.15</v>
       </c>
       <c r="I32">
-        <f t="shared" si="10"/>
-        <v>44.5</v>
+        <f t="shared" si="11"/>
+        <v>44.1</v>
       </c>
       <c r="J32">
-        <f t="shared" si="10"/>
-        <v>51.85</v>
+        <f t="shared" si="11"/>
+        <v>51.45</v>
       </c>
       <c r="K32">
-        <f t="shared" si="10"/>
-        <v>32</v>
+        <f t="shared" si="11"/>
+        <v>31.6</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
@@ -1674,39 +1684,39 @@
       </c>
       <c r="C33" s="1">
         <f>C32/$M$30</f>
-        <v>0.93959183673469371</v>
+        <v>0.93224489795918353</v>
       </c>
       <c r="D33" s="1">
-        <f>D32/$L$30</f>
-        <v>0.89454545454545464</v>
+        <f>D32/$M$30</f>
+        <v>0.92448979591836733</v>
       </c>
       <c r="E33" s="1">
         <f>E32/$L$30</f>
-        <v>1.0236363636363637</v>
+        <v>1.0163636363636364</v>
       </c>
       <c r="F33" s="1">
         <f>F32/$L$30</f>
-        <v>1.0227272727272727</v>
+        <v>1.0154545454545456</v>
       </c>
       <c r="G33" s="1">
         <f>G32/$M$30</f>
-        <v>0.78612244897959194</v>
+        <v>0.77877551020408176</v>
       </c>
       <c r="H33" s="1">
         <f>H32/$L$30</f>
-        <v>0.61</v>
+        <v>0.60272727272727267</v>
       </c>
       <c r="I33" s="1">
         <f>I32/$L$30</f>
-        <v>0.80909090909090908</v>
+        <v>0.80181818181818187</v>
       </c>
       <c r="J33" s="1">
         <f>J32/$L$30</f>
-        <v>0.94272727272727275</v>
+        <v>0.93545454545454554</v>
       </c>
       <c r="K33" s="1">
         <f>K32/$L$30</f>
-        <v>0.58181818181818179</v>
+        <v>0.57454545454545458</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0636AC15-6DA3-A848-8233-9EEB4D890E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267FD148-EAB7-9342-894F-10183BFDF3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="6860" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="5520" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="B2:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,6 +869,9 @@
       <c r="G10">
         <v>88</v>
       </c>
+      <c r="H10">
+        <v>91</v>
+      </c>
       <c r="I10">
         <v>90</v>
       </c>
@@ -886,11 +889,11 @@
       </c>
       <c r="N10" s="3">
         <f>AVERAGE(C10:K10)</f>
-        <v>90.25</v>
+        <v>90.333333333333329</v>
       </c>
       <c r="O10" s="3">
         <f>STDEV(C10:K10)</f>
-        <v>6.7981089807597019</v>
+        <v>6.3639610306789285</v>
       </c>
       <c r="P10" s="3">
         <f>AVERAGE(C10:G10)</f>
@@ -898,7 +901,7 @@
       </c>
       <c r="Q10" s="3">
         <f>AVERAGE(H10:K10)</f>
-        <v>87.333333333333329</v>
+        <v>88.25</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>16</v>
@@ -1016,7 +1019,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -1582,7 +1585,7 @@
       </c>
       <c r="H30">
         <f>SUM(H9,H20,H13,H17,H24)</f>
-        <v>33.15</v>
+        <v>51.35</v>
       </c>
       <c r="I30">
         <f>SUM(I9,I20,I13,I17,I24)</f>
@@ -1663,7 +1666,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
-        <v>33.15</v>
+        <v>51.35</v>
       </c>
       <c r="I32">
         <f t="shared" si="11"/>
@@ -1704,7 +1707,7 @@
       </c>
       <c r="H33" s="1">
         <f>H32/$L$30</f>
-        <v>0.60272727272727267</v>
+        <v>0.93363636363636371</v>
       </c>
       <c r="I33" s="1">
         <f>I32/$L$30</f>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267FD148-EAB7-9342-894F-10183BFDF3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFDA0A0-723D-094A-9997-3E1AA17D1EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="B2:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1251,9 @@
       <c r="J18" s="4">
         <v>95</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4">
+        <v>93</v>
+      </c>
       <c r="L18">
         <v>100</v>
       </c>
@@ -1260,11 +1262,11 @@
       </c>
       <c r="N18" s="3">
         <f>AVERAGE(C18:K18)</f>
-        <v>95.375</v>
+        <v>95.111111111111114</v>
       </c>
       <c r="O18" s="3">
         <f>STDEV(C18:K18)</f>
-        <v>3.2043497223082786</v>
+        <v>3.1001792062897122</v>
       </c>
       <c r="P18" s="3">
         <f>AVERAGE(C18:G18)</f>
@@ -1272,7 +1274,7 @@
       </c>
       <c r="Q18" s="3">
         <f>AVERAGE(H18:K18)</f>
-        <v>95.333333333333329</v>
+        <v>94.75</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>32</v>
@@ -1356,7 +1358,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13.95</v>
       </c>
       <c r="L20">
         <f t="shared" ref="L20:M20" si="6">L18*L19</f>
@@ -1597,7 +1599,7 @@
       </c>
       <c r="K30">
         <f>SUM(K9,K20,K13,K17,K24)</f>
-        <v>31.6</v>
+        <v>45.55</v>
       </c>
       <c r="L30">
         <f>SUM(L9,L20,L13)</f>
@@ -1678,7 +1680,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="11"/>
-        <v>31.6</v>
+        <v>45.55</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
@@ -1719,7 +1721,7 @@
       </c>
       <c r="K33" s="1">
         <f>K32/$L$30</f>
-        <v>0.57454545454545458</v>
+        <v>0.82818181818181813</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFDA0A0-723D-094A-9997-3E1AA17D1EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEF5ED0-76A8-8A49-97FE-5CE50407B699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="B2:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D31" sqref="C31:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,31 +1134,31 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="G17">
         <f>(G14+G16)*G15</f>
-        <v>0.89999999999999991</v>
+        <v>1.44</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:M17" si="3">H14*H15</f>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="G30">
         <f>SUM(G9,G20,G13,G17,G24,G28)</f>
-        <v>38.160000000000004</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H30">
         <f>SUM(H9,H20,H13,H17,H24)</f>
@@ -1614,33 +1614,6 @@
       <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
@@ -1664,7 +1637,7 @@
       </c>
       <c r="G32">
         <f>G30+G31</f>
-        <v>38.160000000000004</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
@@ -1705,7 +1678,7 @@
       </c>
       <c r="G33" s="1">
         <f>G32/$M$30</f>
-        <v>0.77877551020408176</v>
+        <v>0.78979591836734697</v>
       </c>
       <c r="H33" s="1">
         <f>H32/$L$30</f>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEF5ED0-76A8-8A49-97FE-5CE50407B699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB11566-F360-E347-8C05-84EDB2166364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="17720" yWindow="3440" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Weight</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>sum+curve</t>
+  </si>
+  <si>
+    <t>Bonus</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="B2:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="C31:K31"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,31 +766,31 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>12</v>
@@ -799,39 +802,39 @@
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>(C6+C8)*C7</f>
-        <v>16.2</v>
+        <v>17.099999999999998</v>
       </c>
       <c r="D9">
         <f>(D6+D8)*D7</f>
-        <v>15.12</v>
+        <v>16.02</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="0">(E6+E8)*E7</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <f>(F6+F8)*F7</f>
-        <v>20.6</v>
+        <v>21.6</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8.82</v>
+        <v>9.7199999999999989</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K9">
         <f>(K6+K8)*K7</f>
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="L9">
         <f>L6*L7</f>
@@ -1054,27 +1057,51 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
+      <c r="C14">
+        <v>106</v>
+      </c>
+      <c r="D14">
+        <v>84</v>
+      </c>
+      <c r="E14">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>93</v>
+      </c>
+      <c r="H14">
+        <v>105</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>92</v>
+      </c>
       <c r="L14">
         <v>100</v>
       </c>
       <c r="M14">
         <v>100</v>
       </c>
-      <c r="N14" s="3" t="e">
+      <c r="N14" s="3">
         <f>AVERAGE(C14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="3" t="e">
+        <v>97.375</v>
+      </c>
+      <c r="O14" s="3">
         <f>STDEV(C14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P14" s="3" t="e">
+        <v>7.3277846973985641</v>
+      </c>
+      <c r="P14" s="3">
         <f>AVERAGE(C14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" s="3" t="e">
+        <v>96.4</v>
+      </c>
+      <c r="Q14" s="3">
         <f>AVERAGE(H14:K14)</f>
-        <v>#DIV/0!</v>
+        <v>99</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>24</v>
@@ -1131,7 +1158,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -1172,35 +1199,35 @@
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C17">
         <f>C14*C15</f>
-        <v>0</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="D17">
         <f>D14*D15</f>
-        <v>0</v>
+        <v>15.12</v>
       </c>
       <c r="E17">
         <f>E14*E15</f>
-        <v>0</v>
+        <v>19.8</v>
       </c>
       <c r="F17">
         <f>F14*F15</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G17">
         <f>(G14+G16)*G15</f>
-        <v>1.44</v>
+        <v>18.18</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:M17" si="3">H14*H15</f>
-        <v>0</v>
+        <f>H14*H15</f>
+        <v>21</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="H17:M17" si="3">I14*I15</f>
+        <v>20</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
@@ -1526,12 +1553,6 @@
       <c r="B27" t="s">
         <v>0</v>
       </c>
-      <c r="C27">
-        <v>0.13</v>
-      </c>
-      <c r="D27">
-        <v>0.13</v>
-      </c>
       <c r="G27">
         <v>0.13</v>
       </c>
@@ -1542,14 +1563,6 @@
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C28">
-        <f>C26*C27</f>
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <f>D26*D27</f>
-        <v>0</v>
-      </c>
       <c r="G28">
         <f>G26*G27</f>
         <v>0</v>
@@ -1566,48 +1579,48 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <f>SUM(C9,C20,C13,C17,C24,C28)</f>
-        <v>45.679999999999993</v>
+        <f>SUM(C9,C20,C13,C17,C24)</f>
+        <v>65.66</v>
       </c>
       <c r="D30">
-        <f>SUM(D9,D20,D13,D17,D24,D28)</f>
-        <v>45.3</v>
+        <f>SUM(D9,D20,D13,D17,D24)</f>
+        <v>61.32</v>
       </c>
       <c r="E30">
         <f>SUM(E9,E20,E13,E17,E24)</f>
-        <v>55.900000000000006</v>
+        <v>76.7</v>
       </c>
       <c r="F30">
         <f>SUM(F9,F20,F13,F17,F24)</f>
-        <v>55.850000000000009</v>
+        <v>76.850000000000009</v>
       </c>
       <c r="G30">
         <f>SUM(G9,G20,G13,G17,G24,G28)</f>
-        <v>38.700000000000003</v>
+        <v>56.339999999999996</v>
       </c>
       <c r="H30">
         <f>SUM(H9,H20,H13,H17,H24)</f>
-        <v>51.35</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="I30">
         <f>SUM(I9,I20,I13,I17,I24)</f>
-        <v>44.1</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="J30">
         <f>SUM(J9,J20,J13,J17,J24)</f>
-        <v>51.45</v>
+        <v>70.850000000000009</v>
       </c>
       <c r="K30">
         <f>SUM(K9,K20,K13,K17,K24)</f>
-        <v>45.55</v>
+        <v>46.55</v>
       </c>
       <c r="L30">
-        <f>SUM(L9,L20,L13)</f>
-        <v>55</v>
+        <f>SUM(L9,L20,L13,L17)</f>
+        <v>75</v>
       </c>
       <c r="M30">
-        <f>SUM(M9,M20,M13)</f>
-        <v>49</v>
+        <f>SUM(M9,M20,M13,M17)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
@@ -1621,39 +1634,39 @@
       </c>
       <c r="C32">
         <f>C30+C31</f>
-        <v>45.679999999999993</v>
+        <v>65.66</v>
       </c>
       <c r="D32">
         <f t="shared" ref="D32:K32" si="11">D30+D31</f>
-        <v>45.3</v>
+        <v>61.32</v>
       </c>
       <c r="E32">
         <f t="shared" si="11"/>
-        <v>55.900000000000006</v>
+        <v>76.7</v>
       </c>
       <c r="F32">
         <f t="shared" si="11"/>
-        <v>55.850000000000009</v>
+        <v>76.850000000000009</v>
       </c>
       <c r="G32">
         <f>G30+G31</f>
-        <v>38.700000000000003</v>
+        <v>56.339999999999996</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
-        <v>51.35</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="I32">
         <f t="shared" si="11"/>
-        <v>44.1</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="J32">
         <f t="shared" si="11"/>
-        <v>51.45</v>
+        <v>70.850000000000009</v>
       </c>
       <c r="K32">
         <f t="shared" si="11"/>
-        <v>45.55</v>
+        <v>46.55</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
@@ -1662,39 +1675,39 @@
       </c>
       <c r="C33" s="1">
         <f>C32/$M$30</f>
-        <v>0.93224489795918353</v>
+        <v>0.98</v>
       </c>
       <c r="D33" s="1">
         <f>D32/$M$30</f>
-        <v>0.92448979591836733</v>
+        <v>0.91522388059701498</v>
       </c>
       <c r="E33" s="1">
         <f>E32/$L$30</f>
-        <v>1.0163636363636364</v>
+        <v>1.0226666666666666</v>
       </c>
       <c r="F33" s="1">
         <f>F32/$L$30</f>
-        <v>1.0154545454545456</v>
+        <v>1.0246666666666668</v>
       </c>
       <c r="G33" s="1">
         <f>G32/$M$30</f>
-        <v>0.78979591836734697</v>
+        <v>0.84089552238805965</v>
       </c>
       <c r="H33" s="1">
         <f>H32/$L$30</f>
-        <v>0.93363636363636371</v>
+        <v>0.97799999999999987</v>
       </c>
       <c r="I33" s="1">
         <f>I32/$L$30</f>
-        <v>0.80181818181818187</v>
+        <v>0.86799999999999988</v>
       </c>
       <c r="J33" s="1">
         <f>J32/$L$30</f>
-        <v>0.93545454545454554</v>
+        <v>0.94466666666666677</v>
       </c>
       <c r="K33" s="1">
         <f>K32/$L$30</f>
-        <v>0.82818181818181813</v>
+        <v>0.62066666666666659</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB11566-F360-E347-8C05-84EDB2166364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C260B9C-7D55-D34D-9695-0469057D1B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17720" yWindow="3440" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="15800" activeTab="1" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="60">
   <si>
     <t>Weight</t>
   </si>
@@ -208,6 +209,12 @@
   </si>
   <si>
     <t>Bonus</t>
+  </si>
+  <si>
+    <t>Inc</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -241,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -249,17 +256,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:T35"/>
+  <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,12 +617,6 @@
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
       <c r="G3" t="s">
         <v>54</v>
       </c>
@@ -817,7 +834,7 @@
         <v>21.6</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>(G6+G8)*G7</f>
         <v>9.7199999999999989</v>
       </c>
       <c r="H9">
@@ -1198,47 +1215,47 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C17">
-        <f>C14*C15</f>
-        <v>19.079999999999998</v>
+        <f>(C14+C16)*C15</f>
+        <v>20.52</v>
       </c>
       <c r="D17">
-        <f>D14*D15</f>
-        <v>15.12</v>
+        <f t="shared" ref="D17:K17" si="3">(D14+D16)*D15</f>
+        <v>16.559999999999999</v>
       </c>
       <c r="E17">
-        <f>E14*E15</f>
-        <v>19.8</v>
+        <f t="shared" si="3"/>
+        <v>21.400000000000002</v>
       </c>
       <c r="F17">
-        <f>F14*F15</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>21.6</v>
       </c>
       <c r="G17">
         <f>(G14+G16)*G15</f>
         <v>18.18</v>
       </c>
       <c r="H17">
-        <f>H14*H15</f>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>22.6</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="H17:M17" si="3">I14*I15</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>21.6</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>18.400000000000002</v>
+        <v>20</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I17:M17" si="4">L14*L15</f>
         <v>20</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="P17" s="5"/>
@@ -1356,43 +1373,43 @@
         <v>12.74</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20" si="4">D18*D19</f>
+        <f t="shared" ref="D20" si="5">D18*D19</f>
         <v>13.799999999999999</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:K20" si="5">E18*E19</f>
+        <f t="shared" ref="E20:K20" si="6">E18*E19</f>
         <v>14.7</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.85</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
+        <f>G18*G19</f>
         <v>11.700000000000001</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.549999999999999</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.1</v>
       </c>
       <c r="J20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.25</v>
       </c>
       <c r="K20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.95</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:M20" si="6">L18*L19</f>
+        <f t="shared" ref="L20:M20" si="7">L18*L19</f>
         <v>15</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="P20" s="5"/>
@@ -1415,27 +1432,48 @@
       <c r="B22" t="s">
         <v>37</v>
       </c>
+      <c r="D22">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>90</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
+      </c>
+      <c r="G22">
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <v>80</v>
+      </c>
+      <c r="I22">
+        <v>75</v>
+      </c>
+      <c r="J22">
+        <v>95</v>
+      </c>
       <c r="L22">
         <v>100</v>
       </c>
       <c r="M22">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="e">
-        <f>AVERAGE(C22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="3" t="e">
-        <f>STDEV(C22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="3" t="e">
+      <c r="N22" s="3">
+        <f>AVERAGE(D22:J22)</f>
+        <v>82.142857142857139</v>
+      </c>
+      <c r="O22" s="3">
+        <f>STDEV(D22:J22)</f>
+        <v>9.5118973121134367</v>
+      </c>
+      <c r="P22" s="3">
         <f>AVERAGE(C22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="3" t="e">
+        <v>81.25</v>
+      </c>
+      <c r="Q22" s="3">
         <f>AVERAGE(H22:K22)</f>
-        <v>#DIV/0!</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
@@ -1443,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D23">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E23">
         <v>0.25</v>
@@ -1479,248 +1517,1499 @@
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
       <c r="C24">
-        <f>C22*C23</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24" si="7">D22*D23</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:K24" si="8">E22*E23</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f t="shared" ref="L24:M24" si="9">L22*L23</f>
-        <v>25</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="9"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f>(C22+C24)*C23</f>
+        <v>2.5</v>
+      </c>
+      <c r="D25">
+        <f>(D22+D24)*D23</f>
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25" si="8">(E22+E24)*E23</f>
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="9">(F22+F24)*F23</f>
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <f>(G22+G24)*G23</f>
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25" si="10">(H22+H24)*H23</f>
+        <v>22.5</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="11">(I22+I24)*I23</f>
+        <v>21.25</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="12">(J22+J24)*J23</f>
+        <v>26.25</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25" si="13">(K22+K24)*K23</f>
+        <v>2.5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:M25" si="14">L22*L23</f>
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26">
-        <v>100</v>
-      </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0.13</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>95</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
       <c r="M27">
-        <v>0.13</v>
+        <v>100</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
       <c r="G28">
-        <f>G26*G27</f>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28" si="10">M26*M27</f>
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <f>SUM(C9,C20,C13,C17,C24)</f>
-        <v>65.66</v>
-      </c>
-      <c r="D30">
-        <f>SUM(D9,D20,D13,D17,D24)</f>
-        <v>61.32</v>
-      </c>
-      <c r="E30">
-        <f>SUM(E9,E20,E13,E17,E24)</f>
-        <v>76.7</v>
-      </c>
-      <c r="F30">
-        <f>SUM(F9,F20,F13,F17,F24)</f>
-        <v>76.850000000000009</v>
-      </c>
-      <c r="G30">
-        <f>SUM(G9,G20,G13,G17,G24,G28)</f>
-        <v>56.339999999999996</v>
-      </c>
-      <c r="H30">
-        <f>SUM(H9,H20,H13,H17,H24)</f>
-        <v>73.349999999999994</v>
-      </c>
-      <c r="I30">
-        <f>SUM(I9,I20,I13,I17,I24)</f>
-        <v>65.099999999999994</v>
-      </c>
-      <c r="J30">
-        <f>SUM(J9,J20,J13,J17,J24)</f>
-        <v>70.850000000000009</v>
-      </c>
-      <c r="K30">
-        <f>SUM(K9,K20,K13,K17,K24)</f>
-        <v>46.55</v>
-      </c>
-      <c r="L30">
-        <f>SUM(L9,L20,L13,L17)</f>
-        <v>75</v>
-      </c>
-      <c r="M30">
-        <f>SUM(M9,M20,M13,M17)</f>
-        <v>67</v>
-      </c>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f>G27*G28</f>
+        <v>12.35</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29" si="15">M27*M28</f>
+        <v>13</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>55</v>
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C9,C20,C13,C17,C25)</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D9,D20,D13,D17,D25)</f>
+        <v>82.76</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E9,E20,E13,E17,E25)</f>
+        <v>103.30000000000001</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F9,F20,F13,F17,F25)</f>
+        <v>103.45000000000002</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G9,G20,G13,G17,G25,G29)</f>
+        <v>85.69</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H9,H20,H13,H17,H25)</f>
+        <v>97.45</v>
+      </c>
+      <c r="I31">
+        <f>SUM(I9,I20,I13,I17,I25)</f>
+        <v>87.95</v>
+      </c>
+      <c r="J31">
+        <f>SUM(J9,J20,J13,J17,J25)</f>
+        <v>98.7</v>
+      </c>
+      <c r="K31">
+        <f>SUM(K9,K20,K13,K17,K25)</f>
+        <v>50.65</v>
+      </c>
+      <c r="L31">
+        <f>SUM(L9,L20,L13,L17,L25)</f>
+        <v>100</v>
+      </c>
+      <c r="M31">
+        <f>SUM(M9,M20,M13,M17,M25,M29)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="C32">
-        <f>C30+C31</f>
-        <v>65.66</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ref="D32:K32" si="11">D30+D31</f>
-        <v>61.32</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="11"/>
-        <v>76.7</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="11"/>
-        <v>76.850000000000009</v>
-      </c>
-      <c r="G32">
-        <f>G30+G31</f>
-        <v>56.339999999999996</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="11"/>
-        <v>73.349999999999994</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="11"/>
-        <v>65.099999999999994</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="11"/>
-        <v>70.850000000000009</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="11"/>
-        <v>46.55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="C33">
+        <f>C31+C32</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:K33" si="16">D31+D32</f>
+        <v>82.76</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="16"/>
+        <v>103.30000000000001</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="16"/>
+        <v>103.45000000000002</v>
+      </c>
+      <c r="G33">
+        <f>G31+G32</f>
+        <v>85.69</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="16"/>
+        <v>97.45</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="16"/>
+        <v>87.95</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="16"/>
+        <v>98.7</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="16"/>
+        <v>50.65</v>
+      </c>
+      <c r="N33" s="3">
+        <f>AVERAGE(D33:J33)</f>
+        <v>94.185714285714297</v>
+      </c>
+      <c r="O33" s="3">
+        <f>STDEV(D33:J33)</f>
+        <v>8.5784591801069947</v>
+      </c>
+      <c r="P33" s="3">
+        <f>AVERAGE(D33:G33)</f>
+        <v>93.8</v>
+      </c>
+      <c r="Q33" s="3">
+        <f>AVERAGE(H33:J33)</f>
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1">
-        <f>C32/$M$30</f>
-        <v>0.98</v>
-      </c>
-      <c r="D33" s="1">
-        <f>D32/$M$30</f>
-        <v>0.91522388059701498</v>
-      </c>
-      <c r="E33" s="1">
-        <f>E32/$L$30</f>
-        <v>1.0226666666666666</v>
-      </c>
-      <c r="F33" s="1">
-        <f>F32/$L$30</f>
-        <v>1.0246666666666668</v>
-      </c>
-      <c r="G33" s="1">
-        <f>G32/$M$30</f>
-        <v>0.84089552238805965</v>
-      </c>
-      <c r="H33" s="1">
-        <f>H32/$L$30</f>
-        <v>0.97799999999999987</v>
-      </c>
-      <c r="I33" s="1">
-        <f>I32/$L$30</f>
-        <v>0.86799999999999988</v>
-      </c>
-      <c r="J33" s="1">
-        <f>J32/$L$30</f>
-        <v>0.94466666666666677</v>
-      </c>
-      <c r="K33" s="1">
-        <f>K32/$L$30</f>
-        <v>0.62066666666666659</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="C34" s="1">
+        <f>C33/$M$31</f>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="D34" s="1">
+        <f>D33/$M$31</f>
+        <v>0.8276</v>
+      </c>
+      <c r="E34" s="1">
+        <f>E33/$L$31</f>
+        <v>1.0330000000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <f>F33/$L$31</f>
+        <v>1.0345000000000002</v>
+      </c>
+      <c r="G34" s="1">
+        <f>G33/$M$31</f>
+        <v>0.8569</v>
+      </c>
+      <c r="H34" s="1">
+        <f>H33/$L$31</f>
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="I34" s="1">
+        <f>I33/$L$31</f>
+        <v>0.87950000000000006</v>
+      </c>
+      <c r="J34" s="1">
+        <f>J33/$L$31</f>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="K34" s="1">
+        <f>K33/$L$31</f>
+        <v>0.50649999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="L35">
-        <f>SUM(L24,L20,L17,L13,L9)</f>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36">
+        <f>SUM(L25,L20,L17,L13,L9)</f>
         <v>100</v>
       </c>
-      <c r="M35">
-        <f>SUM(M24,M20,M17,M13,M9,M28)</f>
+      <c r="M36">
+        <f>SUM(M25,M20,M17,M13,M9,M29)</f>
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA90987-17CF-D84B-9529-197E99ABE5FD}">
+  <dimension ref="A2:R30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>85</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>79</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>95</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>98</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>44</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6">
+        <v>83</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6">
+        <v>50</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="6">
+        <v>10</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="6">
+        <v>10</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="6">
+        <v>10</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="6">
+        <v>10</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <v>17.099999999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>16.02</v>
+      </c>
+      <c r="F6" s="6">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="J6" s="6">
+        <v>9.7199999999999989</v>
+      </c>
+      <c r="L6" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N6" s="6">
+        <v>12</v>
+      </c>
+      <c r="P6" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="R6" s="6">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>88</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>101</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>97</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>88</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="6">
+        <v>91</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="6">
+        <v>90</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="6">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="6">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="6">
+        <v>5</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="D10" s="6">
+        <v>16.38</v>
+      </c>
+      <c r="F10" s="6">
+        <v>21.200000000000003</v>
+      </c>
+      <c r="H10" s="6">
+        <v>20.400000000000002</v>
+      </c>
+      <c r="J10" s="6">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="L10" s="6">
+        <v>19.200000000000003</v>
+      </c>
+      <c r="N10" s="6">
+        <v>19</v>
+      </c>
+      <c r="P10" s="6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="R10" s="6">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6">
+        <v>106</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>84</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>99</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6">
+        <v>100</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="6">
+        <v>93</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="6">
+        <v>105</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="6">
+        <v>100</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="6">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="6">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="6">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="6">
+        <v>8</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="6">
+        <v>8</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="6">
+        <v>8</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="6">
+        <v>20.52</v>
+      </c>
+      <c r="D14" s="6">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>21.400000000000002</v>
+      </c>
+      <c r="H14" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="J14" s="6">
+        <v>18.18</v>
+      </c>
+      <c r="L14" s="6">
+        <v>22.6</v>
+      </c>
+      <c r="N14" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="P14" s="6">
+        <v>20</v>
+      </c>
+      <c r="R14" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6">
+        <v>98</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>92</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>98</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>99</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6">
+        <v>90</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="6">
+        <v>97</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="6">
+        <v>94</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="6">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
+        <v>12.74</v>
+      </c>
+      <c r="D17" s="6">
+        <v>13.799999999999999</v>
+      </c>
+      <c r="F17" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="H17" s="6">
+        <v>14.85</v>
+      </c>
+      <c r="J17" s="6">
+        <v>11.700000000000001</v>
+      </c>
+      <c r="L17" s="6">
+        <v>14.549999999999999</v>
+      </c>
+      <c r="N17" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>14.25</v>
+      </c>
+      <c r="R17" s="6">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="6">
+        <v>70</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="6">
+        <v>90</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="6">
+        <v>90</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="6">
+        <v>75</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="6">
+        <v>80</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="6">
+        <v>75</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="6">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="6">
+        <v>10</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="6">
+        <v>10</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="6">
+        <v>10</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="6">
+        <v>10</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6">
+        <v>25</v>
+      </c>
+      <c r="H22" s="6">
+        <v>25</v>
+      </c>
+      <c r="J22" s="6">
+        <v>17</v>
+      </c>
+      <c r="L22" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="N22" s="6">
+        <v>21.25</v>
+      </c>
+      <c r="P22" s="6">
+        <v>26.25</v>
+      </c>
+      <c r="R22" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="6">
+        <v>95</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J26" s="6">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6">
+        <v>82.76</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="6">
+        <v>103.30000000000001</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="6">
+        <v>103.45000000000002</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="6">
+        <v>85.69</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="6">
+        <v>97.45</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="6">
+        <v>87.95</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="6">
+        <v>98.7</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="6">
+        <v>50.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C260B9C-7D55-D34D-9695-0469057D1B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663F7815-5B35-894E-9E10-C22DC694D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="15800" activeTab="1" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -1251,7 +1251,7 @@
         <v>1.6</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="I17:M17" si="4">L14*L15</f>
+        <f t="shared" ref="L17:M17" si="4">L14*L15</f>
         <v>20</v>
       </c>
       <c r="M17">
@@ -1850,7 +1850,7 @@
   <dimension ref="A2:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P30"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2665,6 +2665,9 @@
       <c r="Q19" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663F7815-5B35-894E-9E10-C22DC694D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A01263-2057-4D45-B152-8EF2FA90FD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="15800" activeTab="1" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="1540" yWindow="2580" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1098,6 +1098,9 @@
       <c r="J14">
         <v>92</v>
       </c>
+      <c r="K14">
+        <v>76</v>
+      </c>
       <c r="L14">
         <v>100</v>
       </c>
@@ -1106,11 +1109,11 @@
       </c>
       <c r="N14" s="3">
         <f>AVERAGE(C14:K14)</f>
-        <v>97.375</v>
+        <v>95</v>
       </c>
       <c r="O14" s="3">
         <f>STDEV(C14:K14)</f>
-        <v>7.3277846973985641</v>
+        <v>9.8868599666425947</v>
       </c>
       <c r="P14" s="3">
         <f>AVERAGE(C14:G14)</f>
@@ -1118,7 +1121,7 @@
       </c>
       <c r="Q14" s="3">
         <f>AVERAGE(H14:K14)</f>
-        <v>99</v>
+        <v>93.25</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>24</v>
@@ -1248,7 +1251,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>16.8</v>
       </c>
       <c r="L17">
         <f t="shared" ref="L17:M17" si="4">L14*L15</f>
@@ -1453,6 +1456,9 @@
       <c r="J22">
         <v>95</v>
       </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
       <c r="L22">
         <v>100</v>
       </c>
@@ -1473,7 +1479,7 @@
       </c>
       <c r="Q22" s="3">
         <f>AVERAGE(H22:K22)</f>
-        <v>83.333333333333329</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
@@ -1584,15 +1590,15 @@
         <v>26.25</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25" si="13">(K22+K24)*K23</f>
-        <v>2.5</v>
+        <f>(K22+K24)*K23</f>
+        <v>27.5</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25:M25" si="14">L22*L23</f>
+        <f t="shared" ref="L25:M25" si="13">L22*L23</f>
         <v>25</v>
       </c>
       <c r="M25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="P25" s="5"/>
@@ -1642,7 +1648,7 @@
         <v>12.35</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29" si="15">M27*M28</f>
+        <f t="shared" ref="M29" si="14">M27*M28</f>
         <v>13</v>
       </c>
       <c r="P29" s="5"/>
@@ -1686,7 +1692,7 @@
       </c>
       <c r="K31">
         <f>SUM(K9,K20,K13,K17,K25)</f>
-        <v>50.65</v>
+        <v>90.85</v>
       </c>
       <c r="L31">
         <f>SUM(L9,L20,L13,L17,L25)</f>
@@ -1711,15 +1717,15 @@
         <v>69.599999999999994</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:K33" si="16">D31+D32</f>
+        <f t="shared" ref="D33:K33" si="15">D31+D32</f>
         <v>82.76</v>
       </c>
       <c r="E33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>103.30000000000001</v>
       </c>
       <c r="F33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>103.45000000000002</v>
       </c>
       <c r="G33">
@@ -1727,20 +1733,20 @@
         <v>85.69</v>
       </c>
       <c r="H33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>97.45</v>
       </c>
       <c r="I33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>87.95</v>
       </c>
       <c r="J33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>98.7</v>
       </c>
       <c r="K33">
-        <f t="shared" si="16"/>
-        <v>50.65</v>
+        <f t="shared" si="15"/>
+        <v>90.85</v>
       </c>
       <c r="N33" s="3">
         <f>AVERAGE(D33:J33)</f>
@@ -1797,7 +1803,7 @@
       </c>
       <c r="K34" s="1">
         <f>K33/$L$31</f>
-        <v>0.50649999999999995</v>
+        <v>0.90849999999999997</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
@@ -1849,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA90987-17CF-D84B-9529-197E99ABE5FD}">
   <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2672,7 @@
         <v>37</v>
       </c>
       <c r="R19" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A01263-2057-4D45-B152-8EF2FA90FD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D779D53E-F0D8-8048-8B9A-9EFEA042D230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="2580" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="61">
   <si>
     <t>Weight</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>total weight</t>
   </si>
 </sst>
 </file>
@@ -599,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="E7">
         <v>0.2</v>
@@ -819,11 +822,11 @@
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>(C6+C8)*C7</f>
-        <v>17.099999999999998</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <f>(D6+D8)*D7</f>
-        <v>16.02</v>
+        <v>17.8</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="0">(E6+E8)*E7</f>
@@ -935,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
         <v>0.2</v>
@@ -1019,11 +1022,11 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>(C10+C12)*C11</f>
-        <v>16.739999999999998</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D13">
         <f>(D10+D12)*D11</f>
-        <v>16.38</v>
+        <v>18.2</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:L13" si="1">(E10+E12)*E11</f>
@@ -1135,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="E15">
         <v>0.2</v>
@@ -1219,11 +1222,11 @@
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C17">
         <f>(C14+C16)*C15</f>
-        <v>20.52</v>
+        <v>22.8</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:K17" si="3">(D14+D16)*D15</f>
-        <v>16.559999999999999</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
@@ -1335,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="D19">
         <v>0.15</v>
@@ -1373,7 +1376,7 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C20">
         <f>C18*C19</f>
-        <v>12.74</v>
+        <v>14.7</v>
       </c>
       <c r="D20">
         <f t="shared" ref="D20" si="5">D18*D19</f>
@@ -1435,6 +1438,9 @@
       <c r="B22" t="s">
         <v>37</v>
       </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
       <c r="D22">
         <v>70</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>95</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -1475,11 +1481,11 @@
       </c>
       <c r="P22" s="3">
         <f>AVERAGE(C22:G22)</f>
-        <v>81.25</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="3">
         <f>AVERAGE(H22:K22)</f>
-        <v>87.5</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
@@ -1559,7 +1565,7 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C25">
         <f>(C22+C24)*C23</f>
-        <v>2.5</v>
+        <v>21.25</v>
       </c>
       <c r="D25">
         <f>(D22+D24)*D23</f>
@@ -1591,7 +1597,7 @@
       </c>
       <c r="K25">
         <f>(K22+K24)*K23</f>
-        <v>27.5</v>
+        <v>12.5</v>
       </c>
       <c r="L25">
         <f t="shared" ref="L25:M25" si="13">L22*L23</f>
@@ -1654,17 +1660,58 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C28,C23,C19,C15,C11,C7)</f>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:K30" si="15">SUM(D28,D23,D19,D15,D11,D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31">
         <f>SUM(C9,C20,C13,C17,C25)</f>
-        <v>69.599999999999994</v>
+        <v>96.350000000000009</v>
       </c>
       <c r="D31">
         <f>SUM(D9,D20,D13,D17,D25)</f>
-        <v>82.76</v>
+        <v>88.2</v>
       </c>
       <c r="E31">
         <f>SUM(E9,E20,E13,E17,E25)</f>
@@ -1692,7 +1739,7 @@
       </c>
       <c r="K31">
         <f>SUM(K9,K20,K13,K17,K25)</f>
-        <v>90.85</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="L31">
         <f>SUM(L9,L20,L13,L17,L25)</f>
@@ -1714,18 +1761,18 @@
       </c>
       <c r="C33">
         <f>C31+C32</f>
-        <v>69.599999999999994</v>
+        <v>96.350000000000009</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:K33" si="15">D31+D32</f>
-        <v>82.76</v>
+        <f>D31+D32</f>
+        <v>88.2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="D33:K33" si="16">E31+E32</f>
         <v>103.30000000000001</v>
       </c>
       <c r="F33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>103.45000000000002</v>
       </c>
       <c r="G33">
@@ -1733,32 +1780,32 @@
         <v>85.69</v>
       </c>
       <c r="H33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>97.45</v>
       </c>
       <c r="I33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>87.95</v>
       </c>
       <c r="J33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>98.7</v>
       </c>
       <c r="K33">
-        <f t="shared" si="15"/>
-        <v>90.85</v>
+        <f t="shared" si="16"/>
+        <v>75.849999999999994</v>
       </c>
       <c r="N33" s="3">
         <f>AVERAGE(D33:J33)</f>
-        <v>94.185714285714297</v>
+        <v>94.96285714285716</v>
       </c>
       <c r="O33" s="3">
         <f>STDEV(D33:J33)</f>
-        <v>8.5784591801069947</v>
+        <v>7.5563873958519725</v>
       </c>
       <c r="P33" s="3">
         <f>AVERAGE(D33:G33)</f>
-        <v>93.8</v>
+        <v>95.160000000000011</v>
       </c>
       <c r="Q33" s="3">
         <f>AVERAGE(H33:J33)</f>
@@ -1771,11 +1818,11 @@
       </c>
       <c r="C34" s="1">
         <f>C33/$M$31</f>
-        <v>0.69599999999999995</v>
+        <v>0.96350000000000013</v>
       </c>
       <c r="D34" s="1">
         <f>D33/$M$31</f>
-        <v>0.8276</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="E34" s="1">
         <f>E33/$L$31</f>
@@ -1803,7 +1850,7 @@
       </c>
       <c r="K34" s="1">
         <f>K33/$L$31</f>
-        <v>0.90849999999999997</v>
+        <v>0.75849999999999995</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D779D53E-F0D8-8048-8B9A-9EFEA042D230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D608C07-06A7-9C45-A5B9-C8C5F1771FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="2580" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -278,12 +278,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -304,9 +303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -344,7 +343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -450,7 +449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -592,7 +591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,8 +863,8 @@
         <f>M6*M7</f>
         <v>18</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="S9" s="2" t="s">
         <v>14</v>
       </c>
@@ -970,8 +969,8 @@
       <c r="M11">
         <v>0.18</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="S11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1010,8 +1009,8 @@
       <c r="K12">
         <v>5</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
       <c r="S12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1064,8 +1063,8 @@
         <f t="shared" ref="M13" si="2">(M10+M12)*M11</f>
         <v>18</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
       <c r="S13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1170,8 +1169,8 @@
       <c r="M15">
         <v>0.18</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
       <c r="S15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1210,8 +1209,8 @@
       <c r="K16">
         <v>8</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
       <c r="S16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1264,8 +1263,8 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
       <c r="S17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1277,31 +1276,31 @@
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>98</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>92</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
         <v>98</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>99</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18">
         <v>90</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
         <v>97</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18">
         <v>94</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18">
         <v>95</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18">
         <v>93</v>
       </c>
       <c r="L18">
@@ -1370,8 +1369,8 @@
       <c r="M19">
         <v>0.13</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C20">
@@ -1418,21 +1417,12 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
@@ -1525,8 +1515,8 @@
       <c r="M23">
         <v>0.2</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
@@ -1559,8 +1549,8 @@
       <c r="K24">
         <v>10</v>
       </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C25">
@@ -1607,33 +1597,25 @@
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
+      <c r="G27">
         <v>95</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
       <c r="M27">
         <v>100</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
@@ -1645,8 +1627,8 @@
       <c r="M28">
         <v>0.13</v>
       </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="G29">
@@ -1657,8 +1639,8 @@
         <f t="shared" ref="M29" si="14">M27*M28</f>
         <v>13</v>
       </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
@@ -1768,7 +1750,7 @@
         <v>88.2</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="D33:K33" si="16">E31+E32</f>
+        <f t="shared" ref="E33:K33" si="16">E31+E32</f>
         <v>103.30000000000001</v>
       </c>
       <c r="F33">
@@ -1908,1163 +1890,1163 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>85</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>79</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>95</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>98</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>44</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>83</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>50</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>83</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
         <v>0.18</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
         <v>0.18</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
         <v>0.18</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6">
+      <c r="K4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="6">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="5">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="6">
-        <v>10</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="5">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="6">
-        <v>10</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="6">
-        <v>10</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="N5" s="5">
+        <v>10</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="6" t="s">
+      <c r="P5" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>17.099999999999998</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>16.02</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>21</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>21.6</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>9.7199999999999989</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>18.600000000000001</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>12</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>18.600000000000001</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>15.8</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>88</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>86</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>101</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>97</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>88</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>91</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>90</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>93</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5">
         <v>0.18</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
         <v>0.18</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>0.18</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
+      <c r="K8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>5</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>5</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>5</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>5</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>5</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>16.739999999999998</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>16.38</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>21.200000000000003</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>20.400000000000002</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>16.739999999999998</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>19.200000000000003</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>19</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>19.600000000000001</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>16.8</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>106</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>84</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>99</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>100</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>93</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>105</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>100</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>92</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5">
         <v>0.18</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
         <v>0.18</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="E12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <v>0.18</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6">
+      <c r="K12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
         <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>8</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>8</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>8</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>8</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>8</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>8</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>8</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>20.52</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>16.559999999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>21.400000000000002</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>21.6</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>18.18</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>22.6</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>21.6</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>20</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>1.6</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>98</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>92</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>98</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>99</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>90</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>97</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>94</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>95</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5">
         <v>0.13</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
         <v>0.15</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
         <v>0.15</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>0.15</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="I16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <v>0.13</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="K16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
         <v>0.15</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
+      <c r="M16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>0.15</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
+      <c r="O16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
         <v>0.15</v>
       </c>
-      <c r="Q16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
+      <c r="Q16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
         <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>12.74</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>13.799999999999999</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>14.7</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>14.85</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>11.700000000000001</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>14.549999999999999</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>14.1</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>14.25</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <v>13.95</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>70</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>90</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>90</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>75</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>80</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>75</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <v>95</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5">
         <v>0.25</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
         <v>0.25</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
         <v>0.25</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="G20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>0.25</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="I20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
         <v>0.25</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
+      <c r="M20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
         <v>0.25</v>
       </c>
-      <c r="O20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
+      <c r="O20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
         <v>0.25</v>
       </c>
-      <c r="Q20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
+      <c r="Q20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="6">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="5">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="6">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="5">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="6">
-        <v>10</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="5">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="6">
-        <v>10</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="H21" s="5">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="6">
-        <v>10</v>
-      </c>
-      <c r="K21" s="6" t="s">
+      <c r="J21" s="5">
+        <v>10</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="6">
-        <v>10</v>
-      </c>
-      <c r="M21" s="6" t="s">
+      <c r="L21" s="5">
+        <v>10</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="6">
-        <v>10</v>
-      </c>
-      <c r="O21" s="6" t="s">
+      <c r="N21" s="5">
+        <v>10</v>
+      </c>
+      <c r="O21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="6" t="s">
+      <c r="P21" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>2.5</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>20</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>25</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>25</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>17</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>22.5</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>21.25</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="5">
         <v>26.25</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="5">
         <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>95</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="A25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
         <v>0.13</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6" t="s">
+      <c r="K25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>12.35</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>69.599999999999994</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>82.76</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>103.30000000000001</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>103.45000000000002</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>85.69</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>97.45</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="5">
         <v>87.95</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="5">
         <v>98.7</v>
       </c>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="5">
         <v>50.65</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="6" t="s">
+      <c r="L30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="N30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="O30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="Q30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="R30" s="5" t="s">
         <v>58</v>
       </c>
     </row>
